--- a/Documentación/03_Product_Backlog.xlsx
+++ b/Documentación/03_Product_Backlog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ucevaeduco-my.sharepoint.com/personal/jorge_lasso01_uceva_edu_co/Documents/UCEVA Ing. Electrónica/Autoaprendizaje/MisionTic/Ciclo 4/Proyecto MERN/Documentación/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="86" documentId="13_ncr:1_{17B9D638-5CF7-417F-AB2E-94AF88F922FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{45E6698B-4143-4B50-9A3E-D73CFCF56737}"/>
+  <xr:revisionPtr revIDLastSave="315" documentId="13_ncr:1_{17B9D638-5CF7-417F-AB2E-94AF88F922FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DA209446-CB54-489D-B8A4-35E2BE63C856}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,11 +19,11 @@
   <definedNames>
     <definedName name="DoneDays">#REF!</definedName>
     <definedName name="ImplementationDays">#REF!</definedName>
-    <definedName name="ProductBacklog">'Product Backlog'!$A$2:$H$123</definedName>
-    <definedName name="Sprint">'Product Backlog'!$E$3:$E$123</definedName>
+    <definedName name="ProductBacklog">'Product Backlog'!$A$2:$H$142</definedName>
+    <definedName name="Sprint">'Product Backlog'!$E$3:$E$142</definedName>
     <definedName name="SprintTasks">#REF!</definedName>
-    <definedName name="Status">'Product Backlog'!$C$3:$C$123</definedName>
-    <definedName name="StoryName">'Product Backlog'!$B$3:$B$123</definedName>
+    <definedName name="Status">'Product Backlog'!$C$3:$C$142</definedName>
+    <definedName name="StoryName">'Product Backlog'!$B$3:$B$142</definedName>
     <definedName name="TaskRows">#REF!</definedName>
     <definedName name="TaskStatus">#REF!</definedName>
     <definedName name="TaskStoryID">#REF!</definedName>
@@ -128,7 +128,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="106">
   <si>
     <t>Increment Plan</t>
   </si>
@@ -235,9 +235,6 @@
     <t>Documentacion</t>
   </si>
   <si>
-    <t>Se Construye Repositorio (Github) en Proyecto de Equipo, El Proyecto tiene tres fases (To Do, In Progress, Done)</t>
-  </si>
-  <si>
     <t>Proyecto</t>
   </si>
   <si>
@@ -302,6 +299,156 @@
   </si>
   <si>
     <t>Creación de Página Index</t>
+  </si>
+  <si>
+    <t>Diseño</t>
+  </si>
+  <si>
+    <t>Construcción de la página Index del proyecto</t>
+  </si>
+  <si>
+    <t>Construcción del modal registrarse con formulario</t>
+  </si>
+  <si>
+    <t>Creación de modal registrarse</t>
+  </si>
+  <si>
+    <t>Creación de modal iniciar sesión</t>
+  </si>
+  <si>
+    <t>Construcción del modal iniciar sesión con formulario</t>
+  </si>
+  <si>
+    <t>Creación de página usuario docente</t>
+  </si>
+  <si>
+    <t>Construcción de la página usuario docente con el planeador</t>
+  </si>
+  <si>
+    <t>Creación de página usuario administrador</t>
+  </si>
+  <si>
+    <t>Construcción de la página usuario administrador con la información de los docentes</t>
+  </si>
+  <si>
+    <t>Creación del servidor por medio de Express</t>
+  </si>
+  <si>
+    <t>Desarrollo</t>
+  </si>
+  <si>
+    <t>Creación de rutas del backend</t>
+  </si>
+  <si>
+    <t>Enrutamiento del servidor</t>
+  </si>
+  <si>
+    <t>Creación de la API REST</t>
+  </si>
+  <si>
+    <t>Métodos GET/POST/DELETED/PUT/PATCH</t>
+  </si>
+  <si>
+    <t>Levantamiento del servidor de manera local a través del puerto</t>
+  </si>
+  <si>
+    <t>Implementación de los Middlewares</t>
+  </si>
+  <si>
+    <t>Implementación en el archivo de configuración</t>
+  </si>
+  <si>
+    <t>Pruebas unitarias de la lógica desarrollada</t>
+  </si>
+  <si>
+    <t>Testing</t>
+  </si>
+  <si>
+    <t>Creación de Base de Datos local</t>
+  </si>
+  <si>
+    <t>Persistencia</t>
+  </si>
+  <si>
+    <t>Creación de Base de datos en MongoDB</t>
+  </si>
+  <si>
+    <t>Conexión a Base de Datos local</t>
+  </si>
+  <si>
+    <t>Conexión a Base de Datos mediante MongoDB Compass</t>
+  </si>
+  <si>
+    <t>Creación de modelo Schema</t>
+  </si>
+  <si>
+    <t>Creación de modelo Schema mediante Mongoose</t>
+  </si>
+  <si>
+    <t>Modificación de archivo configuración para conexión a Base de Datos</t>
+  </si>
+  <si>
+    <t>Modificación del archivo de configuración para conexión a la Base de Datos</t>
+  </si>
+  <si>
+    <t>Pruebas mediante Postman</t>
+  </si>
+  <si>
+    <t>Pruebas unitarias de conexión y enrutado de la aplicación a la Base de Datos mediante Postman</t>
+  </si>
+  <si>
+    <t>Validación en el registro</t>
+  </si>
+  <si>
+    <t>Verificar que el correo a registrar no exista en la Base de Datos</t>
+  </si>
+  <si>
+    <t>Validación en el incio de sesión</t>
+  </si>
+  <si>
+    <t>Verificar que el correo exista en la base de datos para iniciar sesión</t>
+  </si>
+  <si>
+    <t>Verificar tipo de usuario</t>
+  </si>
+  <si>
+    <t>Identificar el tipo de usuario para enrutar a la vista adecuada</t>
+  </si>
+  <si>
+    <t>Validación de contraseña</t>
+  </si>
+  <si>
+    <t>Validar que la contraseña digitada al momento de inciar sesión sea correcta</t>
+  </si>
+  <si>
+    <t>Despliegue contenedor Docker en Amazon ECS</t>
+  </si>
+  <si>
+    <t>Despliegue</t>
+  </si>
+  <si>
+    <t>Despliegue Back-End en Heroku</t>
+  </si>
+  <si>
+    <t>Despliegue Front-End en Heroku</t>
+  </si>
+  <si>
+    <t>Despliegue base de datos en MongoAtlas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mediante git </t>
+  </si>
+  <si>
+    <t>Modificación del archivo de configuración para conexión a la Base de Datos MongoAtlas</t>
+  </si>
+  <si>
+    <t>Pruebas de funcionamiento de la aplicación desplegada</t>
+  </si>
+  <si>
+    <t>Construir Repositorio en Github</t>
+  </si>
+  <si>
+    <t>Se Construye Repositorio (Github) en Proyecto de Equipo.</t>
   </si>
 </sst>
 </file>
@@ -688,9 +835,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -705,9 +849,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -858,6 +999,18 @@
     <xf numFmtId="0" fontId="3" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -873,591 +1026,17 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="110">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFFFF"/>
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFF99"/>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFCCFFCC"/>
-          <bgColor rgb="FFCCFFCC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFFFF"/>
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFF99"/>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFCCFFCC"/>
-          <bgColor rgb="FFCCFFCC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFFFF"/>
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFF99"/>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFCCFFCC"/>
-          <bgColor rgb="FFCCFFCC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFFFF"/>
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFF99"/>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFCCFFCC"/>
-          <bgColor rgb="FFCCFFCC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <fill>
-        <patternFill patternType="none"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF666699"/>
-      </font>
-      <fill>
-        <patternFill patternType="none"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFFFF"/>
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFF99"/>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFCCFFCC"/>
-          <bgColor rgb="FFCCFFCC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFFFF"/>
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFF99"/>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFCCFFCC"/>
-          <bgColor rgb="FFCCFFCC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFFFF"/>
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFF99"/>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFCCFFCC"/>
-          <bgColor rgb="FFCCFFCC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFFFF"/>
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFF99"/>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFCCFFCC"/>
-          <bgColor rgb="FFCCFFCC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFFFF"/>
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFF99"/>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFCCFFCC"/>
-          <bgColor rgb="FFCCFFCC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFFFF"/>
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFF99"/>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFCCFFCC"/>
-          <bgColor rgb="FFCCFFCC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <fill>
-        <patternFill patternType="none"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF666699"/>
-      </font>
-      <fill>
-        <patternFill patternType="none"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <fill>
-        <patternFill patternType="none"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <fill>
-        <patternFill patternType="none"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF666699"/>
-      </font>
-      <fill>
-        <patternFill patternType="none"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF666699"/>
-      </font>
-      <fill>
-        <patternFill patternType="none"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <fill>
-        <patternFill patternType="none"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF666699"/>
-      </font>
-      <fill>
-        <patternFill patternType="none"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <fill>
-        <patternFill patternType="none"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF666699"/>
-      </font>
-      <fill>
-        <patternFill patternType="none"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <fill>
-        <patternFill patternType="none"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF666699"/>
-      </font>
-      <fill>
-        <patternFill patternType="none"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF666699"/>
-      </font>
-      <fill>
-        <patternFill patternType="none"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <fill>
-        <patternFill patternType="none"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF666699"/>
-      </font>
-      <fill>
-        <patternFill patternType="none"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <fill>
-        <patternFill patternType="none"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF666699"/>
-      </font>
-      <fill>
-        <patternFill patternType="none"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <fill>
-        <patternFill patternType="none"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF666699"/>
-      </font>
-      <fill>
-        <patternFill patternType="none"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <fill>
-        <patternFill patternType="none"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF666699"/>
-      </font>
-      <fill>
-        <patternFill patternType="none"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill patternType="none"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <fill>
-        <patternFill patternType="none"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF666699"/>
-      </font>
-      <fill>
-        <patternFill patternType="none"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <fill>
-        <patternFill patternType="none"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF666699"/>
-      </font>
-      <fill>
-        <patternFill patternType="none"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFFFF"/>
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFF99"/>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFCCFFCC"/>
-          <bgColor rgb="FFCCFFCC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFFFF"/>
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFF99"/>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFCCFFCC"/>
-          <bgColor rgb="FFCCFFCC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <fill>
-        <patternFill patternType="none"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF666699"/>
-      </font>
-      <fill>
-        <patternFill patternType="none"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFFFF"/>
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFF99"/>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFCCFFCC"/>
-          <bgColor rgb="FFCCFFCC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <fill>
-        <patternFill patternType="none"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF666699"/>
-      </font>
-      <fill>
-        <patternFill patternType="none"/>
-      </fill>
-    </dxf>
+  <dxfs count="149">
     <dxf>
       <font>
         <b val="0"/>
@@ -1820,6 +1399,694 @@
         </patternFill>
       </fill>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFFFF"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFF99"/>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFCCFFCC"/>
+          <bgColor rgb="FFCCFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFFFF"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFF99"/>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFCCFFCC"/>
+          <bgColor rgb="FFCCFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF666699"/>
+      </font>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFFFF"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFF99"/>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFCCFFCC"/>
+          <bgColor rgb="FFCCFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFFFF"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFF99"/>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFCCFFCC"/>
+          <bgColor rgb="FFCCFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF666699"/>
+      </font>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFFFF"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFF99"/>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFCCFFCC"/>
+          <bgColor rgb="FFCCFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFFFF"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFF99"/>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFCCFFCC"/>
+          <bgColor rgb="FFCCFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF666699"/>
+      </font>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFFFF"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFF99"/>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFCCFFCC"/>
+          <bgColor rgb="FFCCFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFFFF"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFF99"/>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFCCFFCC"/>
+          <bgColor rgb="FFCCFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFFFF"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFF99"/>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFCCFFCC"/>
+          <bgColor rgb="FFCCFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFFFF"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFF99"/>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFCCFFCC"/>
+          <bgColor rgb="FFCCFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF666699"/>
+      </font>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFFFF"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFF99"/>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFCCFFCC"/>
+          <bgColor rgb="FFCCFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFFFF"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFF99"/>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFCCFFCC"/>
+          <bgColor rgb="FFCCFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFFFF"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFF99"/>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFCCFFCC"/>
+          <bgColor rgb="FFCCFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFFFF"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFF99"/>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFCCFFCC"/>
+          <bgColor rgb="FFCCFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF666699"/>
+      </font>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFFFF"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFF99"/>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFCCFFCC"/>
+          <bgColor rgb="FFCCFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFFFF"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFF99"/>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFCCFFCC"/>
+          <bgColor rgb="FFCCFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFFFF"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFF99"/>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFCCFFCC"/>
+          <bgColor rgb="FFCCFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFFFF"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFF99"/>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFCCFFCC"/>
+          <bgColor rgb="FFCCFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF666699"/>
+      </font>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFFFF"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFF99"/>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFCCFFCC"/>
+          <bgColor rgb="FFCCFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFFFF"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFF99"/>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFCCFFCC"/>
+          <bgColor rgb="FFCCFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFFFF"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFF99"/>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFCCFFCC"/>
+          <bgColor rgb="FFCCFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFFFF"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFF99"/>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFCCFFCC"/>
+          <bgColor rgb="FFCCFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFFFF"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFF99"/>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFCCFFCC"/>
+          <bgColor rgb="FFCCFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFFFF"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFF99"/>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFCCFFCC"/>
+          <bgColor rgb="FFCCFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF666699"/>
+      </font>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
     </dxf>
     <dxf>
       <font>
@@ -2608,6 +2875,198 @@
         <bottom/>
       </border>
     </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF666699"/>
+      </font>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF666699"/>
+      </font>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF666699"/>
+      </font>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF666699"/>
+      </font>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF666699"/>
+      </font>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF666699"/>
+      </font>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF666699"/>
+      </font>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF666699"/>
+      </font>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF666699"/>
+      </font>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF666699"/>
+      </font>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF666699"/>
+      </font>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF666699"/>
+      </font>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -2622,58 +3081,58 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{F899EF04-071F-4438-9F03-C42B061D8F9E}" name="Tabla1" displayName="Tabla1" ref="A2:J10" totalsRowShown="0" headerRowDxfId="109" headerRowBorderDxfId="108" tableBorderDxfId="107" totalsRowBorderDxfId="106">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{F899EF04-071F-4438-9F03-C42B061D8F9E}" name="Tabla1" displayName="Tabla1" ref="A2:J10" totalsRowShown="0" headerRowDxfId="124" headerRowBorderDxfId="123" tableBorderDxfId="122" totalsRowBorderDxfId="121">
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{66CC9B29-972E-440A-912D-BD4A014746AB}" name="Incr." dataDxfId="105"/>
-    <tableColumn id="2" xr3:uid="{8DB82F78-68F3-42A2-850E-63D287D60F0F}" name="Start" dataDxfId="104"/>
-    <tableColumn id="3" xr3:uid="{F968D6EE-A810-4E1A-B390-2EB3FDF1FEBC}" name="Days" dataDxfId="103"/>
-    <tableColumn id="4" xr3:uid="{AAF044F0-1EF6-4F39-B0EC-7E4FF5284F1E}" name="End" dataDxfId="102"/>
-    <tableColumn id="5" xr3:uid="{43FD3FBC-D2AD-4693-A6D3-2D3C3CEA7764}" name="Estimated Size" dataDxfId="101"/>
-    <tableColumn id="6" xr3:uid="{845D7AAE-192D-4ACB-98F1-13E2AB396319}" name="Real Size" dataDxfId="100"/>
-    <tableColumn id="7" xr3:uid="{3A55337D-C59A-4152-AB89-7F958089BEB6}" name="Status" dataDxfId="99"/>
+    <tableColumn id="1" xr3:uid="{66CC9B29-972E-440A-912D-BD4A014746AB}" name="Incr." dataDxfId="120"/>
+    <tableColumn id="2" xr3:uid="{8DB82F78-68F3-42A2-850E-63D287D60F0F}" name="Start" dataDxfId="119"/>
+    <tableColumn id="3" xr3:uid="{F968D6EE-A810-4E1A-B390-2EB3FDF1FEBC}" name="Days" dataDxfId="118"/>
+    <tableColumn id="4" xr3:uid="{AAF044F0-1EF6-4F39-B0EC-7E4FF5284F1E}" name="End" dataDxfId="117"/>
+    <tableColumn id="5" xr3:uid="{43FD3FBC-D2AD-4693-A6D3-2D3C3CEA7764}" name="Estimated Size" dataDxfId="116"/>
+    <tableColumn id="6" xr3:uid="{845D7AAE-192D-4ACB-98F1-13E2AB396319}" name="Real Size" dataDxfId="115"/>
+    <tableColumn id="7" xr3:uid="{3A55337D-C59A-4152-AB89-7F958089BEB6}" name="Status" dataDxfId="114"/>
     <tableColumn id="8" xr3:uid="{38918B64-CCE0-4636-A5E4-263FE5F24E44}" name="Release Date"/>
-    <tableColumn id="9" xr3:uid="{60143B17-7058-4AA2-BE5E-4B4A6B0F3F79}" name="Goal" dataDxfId="98"/>
-    <tableColumn id="10" xr3:uid="{08E89F60-45A7-4FE5-84CF-07185CF17579}" name="% Esfuerzo vs Estimación" dataDxfId="97"/>
+    <tableColumn id="9" xr3:uid="{60143B17-7058-4AA2-BE5E-4B4A6B0F3F79}" name="Goal" dataDxfId="113"/>
+    <tableColumn id="10" xr3:uid="{08E89F60-45A7-4FE5-84CF-07185CF17579}" name="% Esfuerzo vs Estimación" dataDxfId="112"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{A6B9DA90-D87F-4F67-9EB9-B6BDCC070AB7}" name="Tabla2" displayName="Tabla2" ref="A13:K27" totalsRowShown="0" headerRowDxfId="96" headerRowBorderDxfId="95" tableBorderDxfId="94">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{A6B9DA90-D87F-4F67-9EB9-B6BDCC070AB7}" name="Tabla2" displayName="Tabla2" ref="A13:K27" totalsRowShown="0" headerRowDxfId="111" headerRowBorderDxfId="110" tableBorderDxfId="109">
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{3F7F6DD2-6EA2-4440-BD0B-88E2A12AF313}" name="Sprint" dataDxfId="93"/>
-    <tableColumn id="2" xr3:uid="{62768372-7E11-44D1-A207-F692349A3997}" name="Start" dataDxfId="92">
+    <tableColumn id="1" xr3:uid="{3F7F6DD2-6EA2-4440-BD0B-88E2A12AF313}" name="Sprint" dataDxfId="108"/>
+    <tableColumn id="2" xr3:uid="{62768372-7E11-44D1-A207-F692349A3997}" name="Start" dataDxfId="107">
       <calculatedColumnFormula>IF(AND(B13&lt;&gt;"",C13&lt;&gt;"",C14&lt;&gt;""),B13+C13,"")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{F25C110E-5E39-4470-8BC8-391189A23F6A}" name="Days" dataDxfId="91"/>
-    <tableColumn id="4" xr3:uid="{B5697784-C933-4A45-8BA8-617CDCABE74D}" name="End" dataDxfId="90">
+    <tableColumn id="3" xr3:uid="{F25C110E-5E39-4470-8BC8-391189A23F6A}" name="Days" dataDxfId="106"/>
+    <tableColumn id="4" xr3:uid="{B5697784-C933-4A45-8BA8-617CDCABE74D}" name="End" dataDxfId="105">
       <calculatedColumnFormula>IF(AND(B14&lt;&gt;"",C14&lt;&gt;""),B14+C14-1,"")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{5518327B-86C2-485C-AF9A-553A341AB62F}" name="Estimated Size" dataDxfId="89"/>
-    <tableColumn id="6" xr3:uid="{8EE1AD7A-512C-42AD-9C83-F3DE570521F3}" name="Real Size" dataDxfId="88"/>
-    <tableColumn id="7" xr3:uid="{879F25EC-AE5A-403A-BB1E-715A98E973E5}" name="Status" dataDxfId="87"/>
-    <tableColumn id="8" xr3:uid="{35D9BAA4-D3E2-4602-BFEC-3D9FAF91D9FB}" name="Release Date" dataDxfId="86"/>
-    <tableColumn id="9" xr3:uid="{25759FDC-EAD4-41CE-B98D-B6CA5005C897}" name="Goal" dataDxfId="85"/>
-    <tableColumn id="10" xr3:uid="{767130C5-3778-4D2D-B165-AAC8557C9C26}" name="Increment" dataDxfId="84"/>
-    <tableColumn id="11" xr3:uid="{BB50C29E-17AE-4847-B617-C1464CB872F4}" name="% Error estimación" dataDxfId="83"/>
+    <tableColumn id="5" xr3:uid="{5518327B-86C2-485C-AF9A-553A341AB62F}" name="Estimated Size" dataDxfId="104"/>
+    <tableColumn id="6" xr3:uid="{8EE1AD7A-512C-42AD-9C83-F3DE570521F3}" name="Real Size" dataDxfId="103"/>
+    <tableColumn id="7" xr3:uid="{879F25EC-AE5A-403A-BB1E-715A98E973E5}" name="Status" dataDxfId="102"/>
+    <tableColumn id="8" xr3:uid="{35D9BAA4-D3E2-4602-BFEC-3D9FAF91D9FB}" name="Release Date" dataDxfId="101"/>
+    <tableColumn id="9" xr3:uid="{25759FDC-EAD4-41CE-B98D-B6CA5005C897}" name="Goal" dataDxfId="100"/>
+    <tableColumn id="10" xr3:uid="{767130C5-3778-4D2D-B165-AAC8557C9C26}" name="Increment" dataDxfId="99"/>
+    <tableColumn id="11" xr3:uid="{BB50C29E-17AE-4847-B617-C1464CB872F4}" name="% Error estimación" dataDxfId="98"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{55EDAA51-64A0-4C3C-BB05-C8B91F0B95A2}" name="Tabla3" displayName="Tabla3" ref="A2:I18" totalsRowShown="0" headerRowDxfId="82" dataDxfId="81" tableBorderDxfId="80">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{55EDAA51-64A0-4C3C-BB05-C8B91F0B95A2}" name="Tabla3" displayName="Tabla3" ref="A2:I36" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10" tableBorderDxfId="9">
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{5C9319BF-6D02-43C9-BCA9-5EDBE9878A57}" name="Story ID" dataDxfId="79"/>
-    <tableColumn id="2" xr3:uid="{4C99E7E9-CEA2-43DA-87BD-F48F11ACCC65}" name="Story name" dataDxfId="78"/>
-    <tableColumn id="3" xr3:uid="{0A2A499E-9D5E-466D-A989-7A59E43BB357}" name="Status" dataDxfId="77"/>
-    <tableColumn id="4" xr3:uid="{5469DBC9-3DA2-4F4B-8710-F10B84BF1829}" name="Size" dataDxfId="76"/>
-    <tableColumn id="5" xr3:uid="{5305EA1B-B894-4B83-B24C-75E39016D04C}" name="Sprint" dataDxfId="75"/>
-    <tableColumn id="6" xr3:uid="{04E09A1B-DCFB-4289-8952-40AB55E5A7FA}" name="Priority" dataDxfId="74"/>
-    <tableColumn id="7" xr3:uid="{81D2D2DA-2F15-4682-AF3F-DDC36F5414A0}" name="Story Type" dataDxfId="73"/>
-    <tableColumn id="8" xr3:uid="{7448AE9C-D97B-4E61-83F8-FFB1973FA36F}" name="Comments" dataDxfId="72"/>
-    <tableColumn id="9" xr3:uid="{44E148DE-5F04-4CEE-9AAC-6230A237917E}" name="Additional Comments" dataDxfId="71"/>
+    <tableColumn id="1" xr3:uid="{5C9319BF-6D02-43C9-BCA9-5EDBE9878A57}" name="Story ID" dataDxfId="8"/>
+    <tableColumn id="2" xr3:uid="{4C99E7E9-CEA2-43DA-87BD-F48F11ACCC65}" name="Story name" dataDxfId="7"/>
+    <tableColumn id="3" xr3:uid="{0A2A499E-9D5E-466D-A989-7A59E43BB357}" name="Status" dataDxfId="6"/>
+    <tableColumn id="4" xr3:uid="{5469DBC9-3DA2-4F4B-8710-F10B84BF1829}" name="Size" dataDxfId="5"/>
+    <tableColumn id="5" xr3:uid="{5305EA1B-B894-4B83-B24C-75E39016D04C}" name="Sprint" dataDxfId="4"/>
+    <tableColumn id="6" xr3:uid="{04E09A1B-DCFB-4289-8952-40AB55E5A7FA}" name="Priority" dataDxfId="3"/>
+    <tableColumn id="7" xr3:uid="{81D2D2DA-2F15-4682-AF3F-DDC36F5414A0}" name="Story Type" dataDxfId="2"/>
+    <tableColumn id="8" xr3:uid="{7448AE9C-D97B-4E61-83F8-FFB1973FA36F}" name="Comments" dataDxfId="1"/>
+    <tableColumn id="9" xr3:uid="{44E148DE-5F04-4CEE-9AAC-6230A237917E}" name="Additional Comments" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2879,8 +3338,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z999"/>
   <sheetViews>
-    <sheetView topLeftCell="D16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K20" sqref="K20"/>
+    <sheetView topLeftCell="F1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2900,81 +3359,81 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="92" t="s">
+      <c r="A1" s="94" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="92"/>
-      <c r="C1" s="92"/>
-      <c r="D1" s="92"/>
-      <c r="E1" s="92"/>
-      <c r="F1" s="92"/>
-      <c r="G1" s="92"/>
-      <c r="H1" s="92"/>
-      <c r="I1" s="92"/>
-      <c r="J1" s="92"/>
-    </row>
-    <row r="2" spans="1:26" s="82" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="80" t="s">
+      <c r="B1" s="94"/>
+      <c r="C1" s="94"/>
+      <c r="D1" s="94"/>
+      <c r="E1" s="94"/>
+      <c r="F1" s="94"/>
+      <c r="G1" s="94"/>
+      <c r="H1" s="94"/>
+      <c r="I1" s="94"/>
+      <c r="J1" s="94"/>
+    </row>
+    <row r="2" spans="1:26" s="80" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="78" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="77" t="s">
+      <c r="B2" s="75" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="77" t="s">
+      <c r="C2" s="75" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="77" t="s">
+      <c r="D2" s="75" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="77" t="s">
+      <c r="E2" s="75" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="77" t="s">
+      <c r="F2" s="75" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="78" t="s">
+      <c r="G2" s="76" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="77" t="s">
+      <c r="H2" s="75" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="78" t="s">
+      <c r="I2" s="76" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="79" t="s">
+      <c r="J2" s="77" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="81"/>
-      <c r="L2" s="81"/>
-      <c r="M2" s="81"/>
-      <c r="N2" s="81"/>
-      <c r="O2" s="81"/>
-      <c r="P2" s="81"/>
-      <c r="Q2" s="81"/>
-      <c r="R2" s="81"/>
-      <c r="S2" s="81"/>
-      <c r="T2" s="81"/>
-      <c r="U2" s="81"/>
-      <c r="V2" s="81"/>
-      <c r="W2" s="81"/>
-      <c r="X2" s="81"/>
-      <c r="Y2" s="81"/>
-      <c r="Z2" s="81"/>
+      <c r="K2" s="79"/>
+      <c r="L2" s="79"/>
+      <c r="M2" s="79"/>
+      <c r="N2" s="79"/>
+      <c r="O2" s="79"/>
+      <c r="P2" s="79"/>
+      <c r="Q2" s="79"/>
+      <c r="R2" s="79"/>
+      <c r="S2" s="79"/>
+      <c r="T2" s="79"/>
+      <c r="U2" s="79"/>
+      <c r="V2" s="79"/>
+      <c r="W2" s="79"/>
+      <c r="X2" s="79"/>
+      <c r="Y2" s="79"/>
+      <c r="Z2" s="79"/>
     </row>
     <row r="3" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="57">
+      <c r="A3" s="55">
         <v>1</v>
       </c>
       <c r="B3" s="4">
         <f>IF(OR(B14="",A3=""),"",B14)</f>
         <v>44445</v>
       </c>
-      <c r="C3" s="56">
+      <c r="C3" s="54">
         <f>ROUND((SUMIF(A14:A21,A3,F14:F21)/8),0)</f>
         <v>0</v>
       </c>
       <c r="D3" s="4">
-        <f t="shared" ref="D3:D9" si="0">IF(OR(B3="",C3=""),"",B3+C3-1)</f>
+        <f t="shared" ref="D3:D8" si="0">IF(OR(B3="",C3=""),"",B3+C3-1)</f>
         <v>44444</v>
       </c>
       <c r="E3" s="3">
@@ -2986,21 +3445,21 @@
         <v>39</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H3" s="7">
         <v>44442</v>
       </c>
       <c r="I3" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="J3" s="59">
+        <v>38</v>
+      </c>
+      <c r="J3" s="57">
         <f>(F3/E3)</f>
         <v>1.0743801652892562</v>
       </c>
     </row>
     <row r="4" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="57">
+      <c r="A4" s="55">
         <v>2</v>
       </c>
       <c r="B4" s="4">
@@ -3025,12 +3484,12 @@
       </c>
       <c r="H4" s="10"/>
       <c r="I4" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="J4" s="59"/>
+        <v>50</v>
+      </c>
+      <c r="J4" s="57"/>
     </row>
     <row r="5" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="58"/>
+      <c r="A5" s="56"/>
       <c r="B5" s="4" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -3053,10 +3512,10 @@
       </c>
       <c r="H5" s="8"/>
       <c r="I5" s="8"/>
-      <c r="J5" s="59"/>
+      <c r="J5" s="57"/>
     </row>
     <row r="6" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="58"/>
+      <c r="A6" s="56"/>
       <c r="B6" s="4" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -3079,10 +3538,10 @@
       </c>
       <c r="H6" s="10"/>
       <c r="I6" s="8"/>
-      <c r="J6" s="59"/>
+      <c r="J6" s="57"/>
     </row>
     <row r="7" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="58"/>
+      <c r="A7" s="56"/>
       <c r="B7" s="4" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -3105,10 +3564,10 @@
       </c>
       <c r="H7" s="10"/>
       <c r="I7" s="8"/>
-      <c r="J7" s="59"/>
+      <c r="J7" s="57"/>
     </row>
     <row r="8" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="58"/>
+      <c r="A8" s="56"/>
       <c r="B8" s="4" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -3128,17 +3587,17 @@
       </c>
       <c r="H8" s="12"/>
       <c r="I8" s="8"/>
-      <c r="J8" s="59"/>
+      <c r="J8" s="57"/>
     </row>
     <row r="9" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="58"/>
+      <c r="A9" s="56"/>
       <c r="B9" s="11"/>
       <c r="C9" s="11" t="str">
         <f>IF(A9="","",SUMIF(J$14:J$29,A9,C$14:C$29))</f>
         <v/>
       </c>
       <c r="D9" s="11" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(OR(B9="",C9=""),"",B9+C9-1)</f>
         <v/>
       </c>
       <c r="E9" s="11" t="str">
@@ -3149,79 +3608,79 @@
       <c r="G9" s="11"/>
       <c r="H9" s="11"/>
       <c r="I9" s="11"/>
-      <c r="J9" s="60"/>
+      <c r="J9" s="58"/>
     </row>
     <row r="10" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="61"/>
-      <c r="B10" s="62"/>
-      <c r="C10" s="62"/>
-      <c r="D10" s="62"/>
-      <c r="E10" s="62"/>
-      <c r="F10" s="62"/>
-      <c r="G10" s="62"/>
-      <c r="H10" s="62"/>
-      <c r="I10" s="62"/>
-      <c r="J10" s="63"/>
+      <c r="A10" s="59"/>
+      <c r="B10" s="60"/>
+      <c r="C10" s="60"/>
+      <c r="D10" s="60"/>
+      <c r="E10" s="60"/>
+      <c r="F10" s="60"/>
+      <c r="G10" s="60"/>
+      <c r="H10" s="60"/>
+      <c r="I10" s="60"/>
+      <c r="J10" s="61"/>
     </row>
     <row r="11" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="64"/>
-      <c r="B11" s="64"/>
-      <c r="C11" s="64"/>
-      <c r="D11" s="64"/>
-      <c r="E11" s="64"/>
-      <c r="F11" s="64"/>
-      <c r="G11" s="64"/>
-      <c r="H11" s="64"/>
-      <c r="I11" s="64"/>
-      <c r="J11" s="64"/>
+      <c r="A11" s="62"/>
+      <c r="B11" s="62"/>
+      <c r="C11" s="62"/>
+      <c r="D11" s="62"/>
+      <c r="E11" s="62"/>
+      <c r="F11" s="62"/>
+      <c r="G11" s="62"/>
+      <c r="H11" s="62"/>
+      <c r="I11" s="62"/>
+      <c r="J11" s="62"/>
     </row>
     <row r="12" spans="1:26" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="93" t="s">
+      <c r="A12" s="95" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="93"/>
-      <c r="C12" s="93"/>
-      <c r="D12" s="93"/>
-      <c r="E12" s="93"/>
-      <c r="F12" s="93"/>
-      <c r="G12" s="93"/>
-      <c r="H12" s="93"/>
-      <c r="I12" s="93"/>
-      <c r="J12" s="93"/>
-      <c r="K12" s="93"/>
+      <c r="B12" s="95"/>
+      <c r="C12" s="95"/>
+      <c r="D12" s="95"/>
+      <c r="E12" s="95"/>
+      <c r="F12" s="95"/>
+      <c r="G12" s="95"/>
+      <c r="H12" s="95"/>
+      <c r="I12" s="95"/>
+      <c r="J12" s="95"/>
+      <c r="K12" s="95"/>
     </row>
     <row r="13" spans="1:26" ht="25.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="77" t="s">
+      <c r="A13" s="75" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="77" t="s">
+      <c r="B13" s="75" t="s">
         <v>2</v>
       </c>
-      <c r="C13" s="77" t="s">
+      <c r="C13" s="75" t="s">
         <v>3</v>
       </c>
-      <c r="D13" s="77" t="s">
+      <c r="D13" s="75" t="s">
         <v>4</v>
       </c>
-      <c r="E13" s="77" t="s">
+      <c r="E13" s="75" t="s">
         <v>5</v>
       </c>
-      <c r="F13" s="77" t="s">
+      <c r="F13" s="75" t="s">
         <v>6</v>
       </c>
-      <c r="G13" s="78" t="s">
+      <c r="G13" s="76" t="s">
         <v>7</v>
       </c>
-      <c r="H13" s="77" t="s">
+      <c r="H13" s="75" t="s">
         <v>8</v>
       </c>
-      <c r="I13" s="78" t="s">
+      <c r="I13" s="76" t="s">
         <v>9</v>
       </c>
-      <c r="J13" s="77" t="s">
+      <c r="J13" s="75" t="s">
         <v>15</v>
       </c>
-      <c r="K13" s="79" t="s">
+      <c r="K13" s="77" t="s">
         <v>16</v>
       </c>
       <c r="L13" s="2"/>
@@ -3247,7 +3706,7 @@
       <c r="B14" s="13">
         <v>44445</v>
       </c>
-      <c r="C14" s="54">
+      <c r="C14" s="52">
         <f>+F14*1/F$14</f>
         <v>1</v>
       </c>
@@ -3273,7 +3732,7 @@
       <c r="J14" s="3">
         <v>1</v>
       </c>
-      <c r="K14" s="59">
+      <c r="K14" s="57">
         <f>(F14/E14)-1</f>
         <v>7.6923076923076872E-2</v>
       </c>
@@ -3286,7 +3745,7 @@
         <f t="shared" ref="B15:B26" si="3">IF(AND(B14&lt;&gt;"",C14&lt;&gt;"",C15&lt;&gt;""),B14+C14,"")</f>
         <v>44446</v>
       </c>
-      <c r="C15" s="54">
+      <c r="C15" s="52">
         <f t="shared" ref="C15:C21" si="4">+F15*1/F$14</f>
         <v>0.2857142857142857</v>
       </c>
@@ -3312,7 +3771,7 @@
       <c r="J15" s="3">
         <v>1</v>
       </c>
-      <c r="K15" s="59">
+      <c r="K15" s="57">
         <f t="shared" ref="K15:K21" si="5">(F15/E15)-1</f>
         <v>0.11111111111111116</v>
       </c>
@@ -3325,7 +3784,7 @@
         <f t="shared" si="3"/>
         <v>44446.285714285717</v>
       </c>
-      <c r="C16" s="54">
+      <c r="C16" s="52">
         <f t="shared" si="4"/>
         <v>0.42857142857142855</v>
       </c>
@@ -3351,7 +3810,7 @@
       <c r="J16" s="3">
         <v>1</v>
       </c>
-      <c r="K16" s="59">
+      <c r="K16" s="57">
         <f t="shared" si="5"/>
         <v>7.1428571428571397E-2</v>
       </c>
@@ -3364,7 +3823,7 @@
         <f t="shared" si="3"/>
         <v>44446.71428571429</v>
       </c>
-      <c r="C17" s="54">
+      <c r="C17" s="52">
         <f t="shared" si="4"/>
         <v>0.42857142857142855</v>
       </c>
@@ -3379,7 +3838,7 @@
         <v>3</v>
       </c>
       <c r="G17" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H17" s="7">
         <v>44449</v>
@@ -3390,7 +3849,7 @@
       <c r="J17" s="3">
         <v>1</v>
       </c>
-      <c r="K17" s="59">
+      <c r="K17" s="57">
         <f t="shared" si="5"/>
         <v>0.11111111111111094</v>
       </c>
@@ -3403,7 +3862,7 @@
         <f t="shared" si="3"/>
         <v>44447.142857142862</v>
       </c>
-      <c r="C18" s="54">
+      <c r="C18" s="52">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
@@ -3418,7 +3877,7 @@
         <v>7</v>
       </c>
       <c r="G18" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H18" s="7">
         <v>44449</v>
@@ -3429,7 +3888,7 @@
       <c r="J18" s="3">
         <v>1</v>
       </c>
-      <c r="K18" s="59">
+      <c r="K18" s="57">
         <f t="shared" si="5"/>
         <v>2.941176470588247E-2</v>
       </c>
@@ -3442,7 +3901,7 @@
         <f t="shared" si="3"/>
         <v>44448.142857142862</v>
       </c>
-      <c r="C19" s="54">
+      <c r="C19" s="52">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
@@ -3457,7 +3916,7 @@
         <v>7</v>
       </c>
       <c r="G19" s="16" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H19" s="7">
         <v>44449</v>
@@ -3468,7 +3927,7 @@
       <c r="J19" s="3">
         <v>1</v>
       </c>
-      <c r="K19" s="59">
+      <c r="K19" s="57">
         <f t="shared" si="5"/>
         <v>6.0606060606060552E-2</v>
       </c>
@@ -3481,7 +3940,7 @@
         <f t="shared" si="3"/>
         <v>44449.142857142862</v>
       </c>
-      <c r="C20" s="54">
+      <c r="C20" s="52">
         <f t="shared" si="4"/>
         <v>0.7142857142857143</v>
       </c>
@@ -3496,7 +3955,7 @@
         <v>5</v>
       </c>
       <c r="G20" s="16" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H20" s="7">
         <v>44449</v>
@@ -3507,7 +3966,7 @@
       <c r="J20" s="5">
         <v>1</v>
       </c>
-      <c r="K20" s="59">
+      <c r="K20" s="57">
         <f t="shared" si="5"/>
         <v>8.6956521739130599E-2</v>
       </c>
@@ -3520,7 +3979,7 @@
         <f t="shared" si="3"/>
         <v>44449.857142857145</v>
       </c>
-      <c r="C21" s="54">
+      <c r="C21" s="52">
         <f t="shared" si="4"/>
         <v>0.7142857142857143</v>
       </c>
@@ -3535,18 +3994,18 @@
         <v>5</v>
       </c>
       <c r="G21" s="16" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H21" s="7">
         <v>44449</v>
       </c>
       <c r="I21" s="17" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J21" s="5">
         <v>1</v>
       </c>
-      <c r="K21" s="59">
+      <c r="K21" s="57">
         <f t="shared" si="5"/>
         <v>0.11111111111111116</v>
       </c>
@@ -3571,7 +4030,7 @@
       </c>
       <c r="H22" s="7"/>
       <c r="J22" s="5"/>
-      <c r="K22" s="65"/>
+      <c r="K22" s="63"/>
     </row>
     <row r="23" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="18">
@@ -3594,7 +4053,7 @@
       <c r="H23" s="19"/>
       <c r="I23" s="20"/>
       <c r="J23" s="11"/>
-      <c r="K23" s="65"/>
+      <c r="K23" s="63"/>
     </row>
     <row r="24" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="18">
@@ -3668,7 +4127,7 @@
       <c r="J27" s="18"/>
       <c r="K27" s="18"/>
     </row>
-    <row r="28" spans="1:12" s="55" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:12" s="53" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="18"/>
       <c r="B28" s="18"/>
       <c r="C28" s="18"/>
@@ -3676,66 +4135,66 @@
       <c r="E28" s="18"/>
       <c r="F28" s="18"/>
       <c r="G28" s="18"/>
-      <c r="H28" s="69"/>
-      <c r="I28" s="69"/>
-      <c r="J28" s="69"/>
-      <c r="K28" s="69"/>
+      <c r="H28" s="67"/>
+      <c r="I28" s="67"/>
+      <c r="J28" s="67"/>
+      <c r="K28" s="67"/>
     </row>
     <row r="29" spans="1:12" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="66"/>
-      <c r="B29" s="67"/>
-      <c r="C29" s="66"/>
-      <c r="D29" s="67"/>
-      <c r="E29" s="66"/>
-      <c r="F29" s="66"/>
-      <c r="G29" s="68"/>
-      <c r="H29" s="71"/>
-      <c r="I29" s="73"/>
-      <c r="J29" s="74"/>
-      <c r="K29" s="75"/>
-      <c r="L29" s="76"/>
+      <c r="A29" s="64"/>
+      <c r="B29" s="65"/>
+      <c r="C29" s="64"/>
+      <c r="D29" s="65"/>
+      <c r="E29" s="64"/>
+      <c r="F29" s="64"/>
+      <c r="G29" s="66"/>
+      <c r="H29" s="69"/>
+      <c r="I29" s="71"/>
+      <c r="J29" s="72"/>
+      <c r="K29" s="73"/>
+      <c r="L29" s="74"/>
     </row>
     <row r="30" spans="1:12" ht="25.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="95" t="s">
-        <v>48</v>
-      </c>
-      <c r="B30" s="95"/>
-      <c r="C30" s="95"/>
-      <c r="D30" s="95"/>
-      <c r="E30" s="85">
-        <f>SUMIF('Product Backlog'!E$3:E$77,"",'Product Backlog'!D$3:D$77)-SUMIF('Product Backlog'!C$3:C$77,"Removed",'Product Backlog'!D$3:D$77)</f>
+      <c r="A30" s="97" t="s">
+        <v>47</v>
+      </c>
+      <c r="B30" s="97"/>
+      <c r="C30" s="97"/>
+      <c r="D30" s="97"/>
+      <c r="E30" s="83">
+        <f>SUMIF('Product Backlog'!E$3:E$96,"",'Product Backlog'!D$3:D$96)-SUMIF('Product Backlog'!C$3:C$96,"Removed",'Product Backlog'!D$3:D$96)</f>
         <v>0</v>
       </c>
-      <c r="F30" s="85"/>
+      <c r="F30" s="83"/>
       <c r="G30" s="21"/>
-      <c r="H30" s="70"/>
-      <c r="I30" s="72"/>
+      <c r="H30" s="68"/>
+      <c r="I30" s="70"/>
     </row>
     <row r="31" spans="1:12" ht="25.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="94" t="s">
+      <c r="A31" s="96" t="s">
         <v>24</v>
       </c>
-      <c r="B31" s="94"/>
-      <c r="C31" s="94"/>
-      <c r="D31" s="94"/>
-      <c r="E31" s="85">
+      <c r="B31" s="96"/>
+      <c r="C31" s="96"/>
+      <c r="D31" s="96"/>
+      <c r="E31" s="83">
         <f>SUM(E14:E29)</f>
         <v>36.300000000000004</v>
       </c>
-      <c r="F31" s="85">
+      <c r="F31" s="83">
         <f>SUM(F14:F29)</f>
         <v>39</v>
       </c>
       <c r="H31" s="1"/>
     </row>
-    <row r="32" spans="1:12" s="83" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E32" s="86" t="s">
+    <row r="32" spans="1:12" s="81" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E32" s="84" t="s">
+        <v>48</v>
+      </c>
+      <c r="F32" s="84" t="s">
         <v>49</v>
       </c>
-      <c r="F32" s="86" t="s">
-        <v>50</v>
-      </c>
-      <c r="H32" s="84"/>
+      <c r="H32" s="82"/>
     </row>
     <row r="33" spans="4:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D33" s="22"/>
@@ -6649,122 +7108,122 @@
     <mergeCell ref="A30:D30"/>
   </mergeCells>
   <conditionalFormatting sqref="E4:F8 E30:F31 A3:D8 F5:I5 H3:I8">
-    <cfRule type="expression" dxfId="57" priority="13" stopIfTrue="1">
+    <cfRule type="expression" dxfId="148" priority="13" stopIfTrue="1">
       <formula>$G2="Planned"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4:F8 E30:F31 A3:D8 F5:I5 H3:I8">
-    <cfRule type="expression" dxfId="56" priority="14" stopIfTrue="1">
+    <cfRule type="expression" dxfId="147" priority="14" stopIfTrue="1">
       <formula>$G2="Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3:G8 G14:G23 G29">
-    <cfRule type="expression" dxfId="55" priority="15" stopIfTrue="1">
+    <cfRule type="expression" dxfId="146" priority="15" stopIfTrue="1">
       <formula>$G3="Planned"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3:G8 H14:I16 H23:I23 I17:I21 G14:G23 H15:H22 G29:I29">
-    <cfRule type="expression" dxfId="54" priority="16" stopIfTrue="1">
+    <cfRule type="expression" dxfId="145" priority="16" stopIfTrue="1">
       <formula>$G3="Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3:G8 G14:G23 G29">
-    <cfRule type="cellIs" dxfId="53" priority="17" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="144" priority="17" stopIfTrue="1" operator="equal">
       <formula>"Unplanned"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3:E4 F3:F7 H3:H7 H14:I16 H23:I23 H15:H22 B14:F23 H29:I29 A29:F29">
-    <cfRule type="expression" dxfId="52" priority="18" stopIfTrue="1">
+    <cfRule type="expression" dxfId="143" priority="18" stopIfTrue="1">
       <formula>OR($G3="Planned",$G3="Unplanned")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3:E4 F3:F7 H3:H7 B14:F23 A29:F29">
-    <cfRule type="expression" dxfId="51" priority="19" stopIfTrue="1">
+    <cfRule type="expression" dxfId="142" priority="19" stopIfTrue="1">
       <formula>$G3="Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B14:B23">
-    <cfRule type="expression" dxfId="50" priority="20" stopIfTrue="1">
+    <cfRule type="expression" dxfId="141" priority="20" stopIfTrue="1">
       <formula>$G14="Planned"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B14:B23">
-    <cfRule type="expression" dxfId="49" priority="21" stopIfTrue="1">
+    <cfRule type="expression" dxfId="140" priority="21" stopIfTrue="1">
       <formula>$G14="Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B14:B23">
-    <cfRule type="expression" dxfId="48" priority="22" stopIfTrue="1">
+    <cfRule type="expression" dxfId="139" priority="22" stopIfTrue="1">
       <formula>$G14="Planned"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B14:B23">
-    <cfRule type="expression" dxfId="47" priority="23" stopIfTrue="1">
+    <cfRule type="expression" dxfId="138" priority="23" stopIfTrue="1">
       <formula>$G14="Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D14:D23">
-    <cfRule type="expression" dxfId="46" priority="24" stopIfTrue="1">
+    <cfRule type="expression" dxfId="137" priority="24" stopIfTrue="1">
       <formula>$G14="Planned"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D14:D23">
-    <cfRule type="expression" dxfId="45" priority="25" stopIfTrue="1">
+    <cfRule type="expression" dxfId="136" priority="25" stopIfTrue="1">
       <formula>$G14="Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I17:I21">
-    <cfRule type="expression" dxfId="44" priority="34" stopIfTrue="1">
+    <cfRule type="expression" dxfId="135" priority="34" stopIfTrue="1">
       <formula>OR($G17="Planned",$G17="Unplanned")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A10:J10">
-    <cfRule type="expression" dxfId="43" priority="11" stopIfTrue="1">
+    <cfRule type="expression" dxfId="134" priority="11" stopIfTrue="1">
       <formula>$G9="Planned"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A10:J10">
-    <cfRule type="expression" dxfId="42" priority="12" stopIfTrue="1">
+    <cfRule type="expression" dxfId="133" priority="12" stopIfTrue="1">
       <formula>$G9="Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A9:J9">
-    <cfRule type="expression" dxfId="41" priority="9" stopIfTrue="1">
+    <cfRule type="expression" dxfId="132" priority="9" stopIfTrue="1">
       <formula>$G8="Planned"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A9:J9">
-    <cfRule type="expression" dxfId="40" priority="10" stopIfTrue="1">
+    <cfRule type="expression" dxfId="131" priority="10" stopIfTrue="1">
       <formula>$G8="Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A11:J11">
-    <cfRule type="expression" dxfId="39" priority="7" stopIfTrue="1">
+    <cfRule type="expression" dxfId="130" priority="7" stopIfTrue="1">
       <formula>$G10="Planned"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A11:J11">
-    <cfRule type="expression" dxfId="38" priority="8" stopIfTrue="1">
+    <cfRule type="expression" dxfId="129" priority="8" stopIfTrue="1">
       <formula>$G10="Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A14:A23">
-    <cfRule type="expression" dxfId="37" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="128" priority="5" stopIfTrue="1">
       <formula>OR($G14="Planned",$G14="Unplanned")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A24:K28">
-    <cfRule type="expression" dxfId="36" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="127" priority="1" stopIfTrue="1">
       <formula>OR($G24="Planned",$G24="Unplanned")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A14:A23">
-    <cfRule type="expression" dxfId="35" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="126" priority="6" stopIfTrue="1">
       <formula>$G14="Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A24:K28">
-    <cfRule type="expression" dxfId="34" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="125" priority="2" stopIfTrue="1">
       <formula>$G24="Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6787,10 +7246,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:Z984"/>
+  <dimension ref="A1:Z1003"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -6807,17 +7266,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="96" t="s">
+      <c r="A1" s="98" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="96"/>
-      <c r="C1" s="96"/>
-      <c r="D1" s="96"/>
-      <c r="E1" s="96"/>
-      <c r="F1" s="96"/>
-      <c r="G1" s="96"/>
-      <c r="H1" s="96"/>
-      <c r="I1" s="96"/>
+      <c r="B1" s="98"/>
+      <c r="C1" s="98"/>
+      <c r="D1" s="98"/>
+      <c r="E1" s="98"/>
+      <c r="F1" s="98"/>
+      <c r="G1" s="98"/>
+      <c r="H1" s="98"/>
+      <c r="I1" s="98"/>
       <c r="J1" s="28"/>
       <c r="K1" s="28"/>
       <c r="L1" s="28"/>
@@ -6837,31 +7296,31 @@
       <c r="Z1" s="28"/>
     </row>
     <row r="2" spans="1:26" ht="25.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="89" t="s">
+      <c r="A2" s="87" t="s">
         <v>26</v>
       </c>
-      <c r="B2" s="90" t="s">
+      <c r="B2" s="88" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="91" t="s">
+      <c r="C2" s="89" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="89" t="s">
+      <c r="D2" s="87" t="s">
         <v>28</v>
       </c>
-      <c r="E2" s="89" t="s">
+      <c r="E2" s="87" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="89" t="s">
+      <c r="F2" s="87" t="s">
         <v>29</v>
       </c>
-      <c r="G2" s="89" t="s">
+      <c r="G2" s="87" t="s">
         <v>30</v>
       </c>
-      <c r="H2" s="90" t="s">
+      <c r="H2" s="88" t="s">
         <v>31</v>
       </c>
-      <c r="I2" s="90" t="s">
+      <c r="I2" s="88" t="s">
         <v>32</v>
       </c>
       <c r="J2" s="28"/>
@@ -6886,28 +7345,28 @@
       <c r="A3" s="29">
         <v>1</v>
       </c>
-      <c r="B3" s="30" t="s">
+      <c r="B3" s="99" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="31" t="s">
-        <v>40</v>
-      </c>
-      <c r="D3" s="32">
+      <c r="C3" s="30" t="s">
+        <v>33</v>
+      </c>
+      <c r="D3" s="31">
         <v>3</v>
       </c>
-      <c r="E3" s="33">
+      <c r="E3" s="32">
         <v>0</v>
       </c>
-      <c r="F3" s="33">
+      <c r="F3" s="32">
         <v>1</v>
       </c>
-      <c r="G3" s="33" t="s">
+      <c r="G3" s="32" t="s">
         <v>34</v>
       </c>
-      <c r="H3" s="34" t="s">
-        <v>42</v>
-      </c>
-      <c r="I3" s="39"/>
+      <c r="H3" s="33" t="s">
+        <v>41</v>
+      </c>
+      <c r="I3" s="37"/>
       <c r="J3" s="28"/>
       <c r="K3" s="28"/>
       <c r="L3" s="28"/>
@@ -6926,32 +7385,32 @@
       <c r="Y3" s="28"/>
       <c r="Z3" s="28"/>
     </row>
-    <row r="4" spans="1:26" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:26" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A4" s="29">
         <v>2</v>
       </c>
-      <c r="B4" s="36" t="s">
-        <v>18</v>
-      </c>
-      <c r="C4" s="37" t="s">
+      <c r="B4" s="100" t="s">
+        <v>104</v>
+      </c>
+      <c r="C4" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="D4" s="32">
+      <c r="D4" s="31">
         <v>8</v>
       </c>
-      <c r="E4" s="33">
+      <c r="E4" s="32">
         <v>0</v>
       </c>
-      <c r="F4" s="33">
+      <c r="F4" s="32">
         <v>1</v>
       </c>
-      <c r="G4" s="33" t="s">
+      <c r="G4" s="32" t="s">
         <v>34</v>
       </c>
-      <c r="H4" s="34" t="s">
-        <v>35</v>
-      </c>
-      <c r="I4" s="39"/>
+      <c r="H4" s="33" t="s">
+        <v>105</v>
+      </c>
+      <c r="I4" s="37"/>
       <c r="J4" s="28"/>
       <c r="K4" s="28"/>
       <c r="L4" s="28"/>
@@ -6974,28 +7433,28 @@
       <c r="A5" s="29">
         <v>3</v>
       </c>
-      <c r="B5" s="36" t="s">
+      <c r="B5" s="100" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="37" t="s">
+      <c r="C5" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="D5" s="32">
+      <c r="D5" s="31">
         <v>20</v>
       </c>
-      <c r="E5" s="33">
+      <c r="E5" s="32">
         <v>0</v>
       </c>
-      <c r="F5" s="33">
+      <c r="F5" s="32">
         <v>1</v>
       </c>
-      <c r="G5" s="33" t="s">
+      <c r="G5" s="32" t="s">
         <v>34</v>
       </c>
-      <c r="H5" s="34" t="s">
-        <v>52</v>
-      </c>
-      <c r="I5" s="39"/>
+      <c r="H5" s="33" t="s">
+        <v>51</v>
+      </c>
+      <c r="I5" s="37"/>
       <c r="J5" s="28"/>
       <c r="K5" s="28"/>
       <c r="L5" s="28"/>
@@ -7018,28 +7477,28 @@
       <c r="A6" s="29">
         <v>4</v>
       </c>
-      <c r="B6" s="36" t="s">
+      <c r="B6" s="100" t="s">
         <v>20</v>
       </c>
-      <c r="C6" s="37" t="s">
-        <v>40</v>
-      </c>
-      <c r="D6" s="32">
+      <c r="C6" s="35" t="s">
+        <v>33</v>
+      </c>
+      <c r="D6" s="31">
         <v>13</v>
       </c>
-      <c r="E6" s="33">
+      <c r="E6" s="32">
         <v>0</v>
       </c>
-      <c r="F6" s="33">
+      <c r="F6" s="32">
         <v>1</v>
       </c>
-      <c r="G6" s="33" t="s">
+      <c r="G6" s="32" t="s">
         <v>34</v>
       </c>
-      <c r="H6" s="34" t="s">
-        <v>53</v>
-      </c>
-      <c r="I6" s="39"/>
+      <c r="H6" s="33" t="s">
+        <v>52</v>
+      </c>
+      <c r="I6" s="37"/>
       <c r="J6" s="28"/>
       <c r="K6" s="28"/>
       <c r="L6" s="28"/>
@@ -7062,28 +7521,28 @@
       <c r="A7" s="29">
         <v>5</v>
       </c>
-      <c r="B7" s="36" t="s">
+      <c r="B7" s="100" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="37" t="s">
-        <v>40</v>
-      </c>
-      <c r="D7" s="32">
+      <c r="C7" s="35" t="s">
+        <v>33</v>
+      </c>
+      <c r="D7" s="31">
         <v>13</v>
       </c>
-      <c r="E7" s="33">
+      <c r="E7" s="32">
         <v>0</v>
       </c>
       <c r="F7" s="29">
         <v>1</v>
       </c>
-      <c r="G7" s="33" t="s">
+      <c r="G7" s="32" t="s">
         <v>34</v>
       </c>
-      <c r="H7" s="34" t="s">
-        <v>43</v>
-      </c>
-      <c r="I7" s="39"/>
+      <c r="H7" s="33" t="s">
+        <v>42</v>
+      </c>
+      <c r="I7" s="37"/>
       <c r="J7" s="28"/>
       <c r="K7" s="28"/>
       <c r="L7" s="28"/>
@@ -7106,28 +7565,28 @@
       <c r="A8" s="29">
         <v>6</v>
       </c>
-      <c r="B8" s="38" t="s">
+      <c r="B8" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="37" t="s">
-        <v>40</v>
-      </c>
-      <c r="D8" s="32">
+      <c r="C8" s="35" t="s">
+        <v>39</v>
+      </c>
+      <c r="D8" s="31">
         <v>13</v>
       </c>
-      <c r="E8" s="33">
+      <c r="E8" s="32">
         <v>0</v>
       </c>
-      <c r="F8" s="33">
+      <c r="F8" s="32">
         <v>1</v>
       </c>
-      <c r="G8" s="33" t="s">
+      <c r="G8" s="32" t="s">
         <v>34</v>
       </c>
-      <c r="H8" s="34" t="s">
-        <v>44</v>
-      </c>
-      <c r="I8" s="39"/>
+      <c r="H8" s="33" t="s">
+        <v>43</v>
+      </c>
+      <c r="I8" s="37"/>
       <c r="J8" s="28"/>
       <c r="K8" s="28"/>
       <c r="L8" s="28"/>
@@ -7150,30 +7609,30 @@
       <c r="A9" s="29">
         <v>7</v>
       </c>
-      <c r="B9" s="38" t="s">
-        <v>45</v>
-      </c>
-      <c r="C9" s="37" t="s">
-        <v>38</v>
-      </c>
-      <c r="D9" s="32">
+      <c r="B9" s="36" t="s">
+        <v>44</v>
+      </c>
+      <c r="C9" s="35" t="s">
+        <v>39</v>
+      </c>
+      <c r="D9" s="31">
         <v>13</v>
       </c>
-      <c r="E9" s="33">
+      <c r="E9" s="32">
         <v>0</v>
       </c>
       <c r="F9" s="29">
         <v>1</v>
       </c>
-      <c r="G9" s="33" t="s">
+      <c r="G9" s="32" t="s">
         <v>34</v>
       </c>
-      <c r="H9" s="34" t="s">
-        <v>46</v>
-      </c>
-      <c r="I9" s="39"/>
+      <c r="H9" s="33" t="s">
+        <v>45</v>
+      </c>
+      <c r="I9" s="37"/>
       <c r="J9" s="28"/>
-      <c r="K9" s="40"/>
+      <c r="K9" s="38"/>
       <c r="L9" s="28"/>
       <c r="M9" s="28"/>
       <c r="N9" s="28"/>
@@ -7194,28 +7653,28 @@
       <c r="A10" s="29">
         <v>8</v>
       </c>
-      <c r="B10" s="38" t="s">
-        <v>54</v>
-      </c>
-      <c r="C10" s="37" t="s">
-        <v>38</v>
-      </c>
-      <c r="D10" s="32">
-        <v>8</v>
-      </c>
-      <c r="E10" s="33">
+      <c r="B10" s="36" t="s">
+        <v>53</v>
+      </c>
+      <c r="C10" s="35" t="s">
+        <v>39</v>
+      </c>
+      <c r="D10" s="31">
+        <v>100</v>
+      </c>
+      <c r="E10" s="32">
         <v>0</v>
       </c>
       <c r="F10" s="29">
         <v>1</v>
       </c>
-      <c r="G10" s="33" t="s">
+      <c r="G10" s="32" t="s">
         <v>34</v>
       </c>
-      <c r="H10" s="35" t="s">
-        <v>47</v>
-      </c>
-      <c r="I10" s="39"/>
+      <c r="H10" s="34" t="s">
+        <v>46</v>
+      </c>
+      <c r="I10" s="37"/>
       <c r="J10" s="28"/>
       <c r="K10" s="28"/>
       <c r="L10" s="28"/>
@@ -7234,32 +7693,32 @@
       <c r="Y10" s="28"/>
       <c r="Z10" s="28"/>
     </row>
-    <row r="11" spans="1:26" s="55" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A11" s="33">
+    <row r="11" spans="1:26" s="53" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A11" s="32">
         <v>9</v>
       </c>
-      <c r="B11" s="38" t="s">
-        <v>55</v>
-      </c>
-      <c r="C11" s="37" t="s">
-        <v>38</v>
-      </c>
-      <c r="D11" s="32">
-        <v>13</v>
-      </c>
-      <c r="E11" s="33">
+      <c r="B11" s="36" t="s">
+        <v>54</v>
+      </c>
+      <c r="C11" s="35" t="s">
+        <v>39</v>
+      </c>
+      <c r="D11" s="31">
+        <v>100</v>
+      </c>
+      <c r="E11" s="32">
         <v>0</v>
       </c>
-      <c r="F11" s="33">
+      <c r="F11" s="32">
         <v>1</v>
       </c>
-      <c r="G11" s="33" t="s">
+      <c r="G11" s="32" t="s">
         <v>34</v>
       </c>
-      <c r="H11" s="35" t="s">
-        <v>47</v>
-      </c>
-      <c r="I11" s="39"/>
+      <c r="H11" s="34" t="s">
+        <v>46</v>
+      </c>
+      <c r="I11" s="37"/>
       <c r="J11" s="28"/>
       <c r="K11" s="28"/>
       <c r="L11" s="28"/>
@@ -7278,22 +7737,32 @@
       <c r="Y11" s="28"/>
       <c r="Z11" s="28"/>
     </row>
-    <row r="12" spans="1:26" s="55" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A12" s="33">
+    <row r="12" spans="1:26" s="53" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A12" s="32">
         <v>10</v>
       </c>
-      <c r="B12" s="38" t="s">
+      <c r="B12" s="36" t="s">
+        <v>55</v>
+      </c>
+      <c r="C12" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="D12" s="31">
+        <v>13</v>
+      </c>
+      <c r="E12" s="32">
+        <v>1</v>
+      </c>
+      <c r="F12" s="32">
+        <v>1</v>
+      </c>
+      <c r="G12" s="32" t="s">
         <v>56</v>
       </c>
-      <c r="C12" s="37" t="s">
-        <v>38</v>
-      </c>
-      <c r="D12" s="32"/>
-      <c r="E12" s="33"/>
-      <c r="F12" s="33"/>
-      <c r="G12" s="33"/>
-      <c r="H12" s="34"/>
-      <c r="I12" s="39"/>
+      <c r="H12" s="33" t="s">
+        <v>57</v>
+      </c>
+      <c r="I12" s="37"/>
       <c r="J12" s="28"/>
       <c r="K12" s="28"/>
       <c r="L12" s="28"/>
@@ -7312,16 +7781,32 @@
       <c r="Y12" s="28"/>
       <c r="Z12" s="28"/>
     </row>
-    <row r="13" spans="1:26" s="55" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A13" s="33"/>
-      <c r="B13" s="38"/>
-      <c r="C13" s="37"/>
-      <c r="D13" s="32"/>
-      <c r="E13" s="33"/>
-      <c r="F13" s="33"/>
-      <c r="G13" s="33"/>
-      <c r="H13" s="34"/>
-      <c r="I13" s="39"/>
+    <row r="13" spans="1:26" s="53" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A13" s="32">
+        <v>11</v>
+      </c>
+      <c r="B13" s="36" t="s">
+        <v>59</v>
+      </c>
+      <c r="C13" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="D13" s="31">
+        <v>13</v>
+      </c>
+      <c r="E13" s="32">
+        <v>1</v>
+      </c>
+      <c r="F13" s="32">
+        <v>1</v>
+      </c>
+      <c r="G13" s="32" t="s">
+        <v>56</v>
+      </c>
+      <c r="H13" s="33" t="s">
+        <v>58</v>
+      </c>
+      <c r="I13" s="37"/>
       <c r="J13" s="28"/>
       <c r="K13" s="28"/>
       <c r="L13" s="28"/>
@@ -7340,16 +7825,32 @@
       <c r="Y13" s="28"/>
       <c r="Z13" s="28"/>
     </row>
-    <row r="14" spans="1:26" s="55" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A14" s="33"/>
-      <c r="B14" s="38"/>
-      <c r="C14" s="37"/>
-      <c r="D14" s="32"/>
-      <c r="E14" s="33"/>
-      <c r="F14" s="33"/>
-      <c r="G14" s="33"/>
-      <c r="H14" s="34"/>
-      <c r="I14" s="39"/>
+    <row r="14" spans="1:26" s="53" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A14" s="32">
+        <v>12</v>
+      </c>
+      <c r="B14" s="36" t="s">
+        <v>60</v>
+      </c>
+      <c r="C14" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="D14" s="31">
+        <v>13</v>
+      </c>
+      <c r="E14" s="32">
+        <v>1</v>
+      </c>
+      <c r="F14" s="32">
+        <v>1</v>
+      </c>
+      <c r="G14" s="32" t="s">
+        <v>56</v>
+      </c>
+      <c r="H14" s="33" t="s">
+        <v>61</v>
+      </c>
+      <c r="I14" s="37"/>
       <c r="J14" s="28"/>
       <c r="K14" s="28"/>
       <c r="L14" s="28"/>
@@ -7368,16 +7869,32 @@
       <c r="Y14" s="28"/>
       <c r="Z14" s="28"/>
     </row>
-    <row r="15" spans="1:26" s="55" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A15" s="33"/>
-      <c r="B15" s="38"/>
-      <c r="C15" s="37"/>
-      <c r="D15" s="32"/>
-      <c r="E15" s="33"/>
-      <c r="F15" s="33"/>
-      <c r="G15" s="33"/>
-      <c r="H15" s="34"/>
-      <c r="I15" s="39"/>
+    <row r="15" spans="1:26" s="53" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A15" s="32">
+        <v>13</v>
+      </c>
+      <c r="B15" s="36" t="s">
+        <v>62</v>
+      </c>
+      <c r="C15" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="D15" s="31">
+        <v>20</v>
+      </c>
+      <c r="E15" s="32">
+        <v>1</v>
+      </c>
+      <c r="F15" s="32">
+        <v>1</v>
+      </c>
+      <c r="G15" s="32" t="s">
+        <v>56</v>
+      </c>
+      <c r="H15" s="33" t="s">
+        <v>63</v>
+      </c>
+      <c r="I15" s="37"/>
       <c r="J15" s="28"/>
       <c r="K15" s="28"/>
       <c r="L15" s="28"/>
@@ -7396,16 +7913,32 @@
       <c r="Y15" s="28"/>
       <c r="Z15" s="28"/>
     </row>
-    <row r="16" spans="1:26" s="55" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A16" s="33"/>
-      <c r="B16" s="38"/>
-      <c r="C16" s="37"/>
-      <c r="D16" s="32"/>
-      <c r="E16" s="33"/>
-      <c r="F16" s="33"/>
-      <c r="G16" s="33"/>
-      <c r="H16" s="34"/>
-      <c r="I16" s="39"/>
+    <row r="16" spans="1:26" s="53" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A16" s="32">
+        <v>14</v>
+      </c>
+      <c r="B16" s="36" t="s">
+        <v>64</v>
+      </c>
+      <c r="C16" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="D16" s="31">
+        <v>13</v>
+      </c>
+      <c r="E16" s="32">
+        <v>1</v>
+      </c>
+      <c r="F16" s="32">
+        <v>1</v>
+      </c>
+      <c r="G16" s="32" t="s">
+        <v>56</v>
+      </c>
+      <c r="H16" s="33" t="s">
+        <v>65</v>
+      </c>
+      <c r="I16" s="37"/>
       <c r="J16" s="28"/>
       <c r="K16" s="28"/>
       <c r="L16" s="28"/>
@@ -7424,18 +7957,34 @@
       <c r="Y16" s="28"/>
       <c r="Z16" s="28"/>
     </row>
-    <row r="17" spans="1:26" s="55" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A17" s="33"/>
-      <c r="B17" s="38"/>
-      <c r="C17" s="37"/>
-      <c r="D17" s="32"/>
-      <c r="E17" s="33"/>
-      <c r="F17" s="33"/>
-      <c r="G17" s="33"/>
-      <c r="H17" s="34"/>
-      <c r="I17" s="39"/>
+    <row r="17" spans="1:26" s="53" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A17" s="32">
+        <v>15</v>
+      </c>
+      <c r="B17" s="36" t="s">
+        <v>66</v>
+      </c>
+      <c r="C17" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="D17" s="31">
+        <v>20</v>
+      </c>
+      <c r="E17" s="32">
+        <v>2</v>
+      </c>
+      <c r="F17" s="32">
+        <v>1</v>
+      </c>
+      <c r="G17" s="32" t="s">
+        <v>67</v>
+      </c>
+      <c r="H17" s="33" t="s">
+        <v>72</v>
+      </c>
+      <c r="I17" s="37"/>
       <c r="J17" s="28"/>
-      <c r="K17" s="40"/>
+      <c r="K17" s="38"/>
       <c r="L17" s="28"/>
       <c r="M17" s="28"/>
       <c r="N17" s="28"/>
@@ -7452,16 +8001,32 @@
       <c r="Y17" s="28"/>
       <c r="Z17" s="28"/>
     </row>
-    <row r="18" spans="1:26" s="55" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A18" s="97"/>
-      <c r="B18" s="98"/>
-      <c r="C18" s="99"/>
-      <c r="D18" s="100"/>
-      <c r="E18" s="97"/>
-      <c r="F18" s="97"/>
-      <c r="G18" s="97"/>
-      <c r="H18" s="87"/>
-      <c r="I18" s="88"/>
+    <row r="18" spans="1:26" s="53" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A18" s="90">
+        <v>16</v>
+      </c>
+      <c r="B18" s="91" t="s">
+        <v>68</v>
+      </c>
+      <c r="C18" s="92" t="s">
+        <v>37</v>
+      </c>
+      <c r="D18" s="93">
+        <v>13</v>
+      </c>
+      <c r="E18" s="90">
+        <v>2</v>
+      </c>
+      <c r="F18" s="90">
+        <v>1</v>
+      </c>
+      <c r="G18" s="90" t="s">
+        <v>67</v>
+      </c>
+      <c r="H18" s="85" t="s">
+        <v>69</v>
+      </c>
+      <c r="I18" s="86"/>
       <c r="J18" s="28"/>
       <c r="K18" s="28"/>
       <c r="L18" s="28"/>
@@ -7480,1113 +8045,1393 @@
       <c r="Y18" s="28"/>
       <c r="Z18" s="28"/>
     </row>
-    <row r="19" spans="1:26" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="41"/>
-      <c r="B19" s="41"/>
-      <c r="C19" s="41"/>
-      <c r="D19" s="41"/>
-      <c r="E19" s="41"/>
-      <c r="F19" s="41"/>
-      <c r="G19" s="42"/>
-      <c r="H19" s="41"/>
-      <c r="I19" s="41"/>
-      <c r="J19" s="41"/>
-      <c r="K19" s="41"/>
-      <c r="L19" s="41"/>
-      <c r="M19" s="41"/>
-      <c r="N19" s="41"/>
-      <c r="O19" s="41"/>
-      <c r="P19" s="41"/>
-      <c r="Q19" s="41"/>
-      <c r="R19" s="41"/>
-      <c r="S19" s="41"/>
-      <c r="T19" s="41"/>
-      <c r="U19" s="41"/>
-      <c r="V19" s="41"/>
-      <c r="W19" s="41"/>
-      <c r="X19" s="41"/>
-      <c r="Y19" s="41"/>
-      <c r="Z19" s="41"/>
-    </row>
-    <row r="20" spans="1:26" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="41"/>
-      <c r="B20" s="41"/>
-      <c r="C20" s="41"/>
-      <c r="D20" s="41"/>
-      <c r="E20" s="41"/>
-      <c r="F20" s="41"/>
-      <c r="G20" s="42"/>
-      <c r="H20" s="41"/>
-      <c r="I20" s="41"/>
-      <c r="J20" s="41"/>
-      <c r="K20" s="43"/>
-      <c r="L20" s="41"/>
-      <c r="M20" s="41"/>
-      <c r="N20" s="41"/>
-      <c r="O20" s="41"/>
-      <c r="P20" s="41"/>
-      <c r="Q20" s="41"/>
-      <c r="R20" s="41"/>
-      <c r="S20" s="41"/>
-      <c r="T20" s="41"/>
-      <c r="U20" s="41"/>
-      <c r="V20" s="41"/>
-      <c r="W20" s="41"/>
-      <c r="X20" s="41"/>
-      <c r="Y20" s="41"/>
-      <c r="Z20" s="41"/>
-    </row>
-    <row r="21" spans="1:26" ht="27.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="41"/>
-      <c r="B21" s="41"/>
-      <c r="C21" s="41"/>
-      <c r="D21" s="41"/>
-      <c r="E21" s="41"/>
-      <c r="F21" s="41"/>
-      <c r="G21" s="44" t="s">
+    <row r="19" spans="1:26" s="53" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A19" s="32">
+        <v>17</v>
+      </c>
+      <c r="B19" s="36" t="s">
+        <v>70</v>
+      </c>
+      <c r="C19" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="D19" s="31">
+        <v>13</v>
+      </c>
+      <c r="E19" s="32">
+        <v>2</v>
+      </c>
+      <c r="F19" s="32">
+        <v>1</v>
+      </c>
+      <c r="G19" s="32" t="s">
+        <v>67</v>
+      </c>
+      <c r="H19" s="33" t="s">
+        <v>71</v>
+      </c>
+      <c r="I19" s="37"/>
+      <c r="J19" s="28"/>
+      <c r="K19" s="28"/>
+      <c r="L19" s="28"/>
+      <c r="M19" s="28"/>
+      <c r="N19" s="28"/>
+      <c r="O19" s="28"/>
+      <c r="P19" s="28"/>
+      <c r="Q19" s="28"/>
+      <c r="R19" s="28"/>
+      <c r="S19" s="28"/>
+      <c r="T19" s="28"/>
+      <c r="U19" s="28"/>
+      <c r="V19" s="28"/>
+      <c r="W19" s="28"/>
+      <c r="X19" s="28"/>
+      <c r="Y19" s="28"/>
+      <c r="Z19" s="28"/>
+    </row>
+    <row r="20" spans="1:26" s="53" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A20" s="32">
+        <v>18</v>
+      </c>
+      <c r="B20" s="36" t="s">
+        <v>73</v>
+      </c>
+      <c r="C20" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="D20" s="31">
+        <v>13</v>
+      </c>
+      <c r="E20" s="32">
+        <v>2</v>
+      </c>
+      <c r="F20" s="32">
+        <v>1</v>
+      </c>
+      <c r="G20" s="32" t="s">
+        <v>67</v>
+      </c>
+      <c r="H20" s="33" t="s">
+        <v>74</v>
+      </c>
+      <c r="I20" s="37"/>
+      <c r="J20" s="28"/>
+      <c r="K20" s="28"/>
+      <c r="L20" s="28"/>
+      <c r="M20" s="28"/>
+      <c r="N20" s="28"/>
+      <c r="O20" s="28"/>
+      <c r="P20" s="28"/>
+      <c r="Q20" s="28"/>
+      <c r="R20" s="28"/>
+      <c r="S20" s="28"/>
+      <c r="T20" s="28"/>
+      <c r="U20" s="28"/>
+      <c r="V20" s="28"/>
+      <c r="W20" s="28"/>
+      <c r="X20" s="28"/>
+      <c r="Y20" s="28"/>
+      <c r="Z20" s="28"/>
+    </row>
+    <row r="21" spans="1:26" s="53" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A21" s="32">
+        <v>19</v>
+      </c>
+      <c r="B21" s="36" t="s">
+        <v>75</v>
+      </c>
+      <c r="C21" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="D21" s="31">
+        <v>20</v>
+      </c>
+      <c r="E21" s="32">
+        <v>2</v>
+      </c>
+      <c r="F21" s="32">
+        <v>1</v>
+      </c>
+      <c r="G21" s="32" t="s">
+        <v>76</v>
+      </c>
+      <c r="H21" s="33"/>
+      <c r="I21" s="37"/>
+      <c r="J21" s="28"/>
+      <c r="K21" s="28"/>
+      <c r="L21" s="28"/>
+      <c r="M21" s="28"/>
+      <c r="N21" s="28"/>
+      <c r="O21" s="28"/>
+      <c r="P21" s="28"/>
+      <c r="Q21" s="28"/>
+      <c r="R21" s="28"/>
+      <c r="S21" s="28"/>
+      <c r="T21" s="28"/>
+      <c r="U21" s="28"/>
+      <c r="V21" s="28"/>
+      <c r="W21" s="28"/>
+      <c r="X21" s="28"/>
+      <c r="Y21" s="28"/>
+      <c r="Z21" s="28"/>
+    </row>
+    <row r="22" spans="1:26" s="53" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A22" s="32">
+        <v>20</v>
+      </c>
+      <c r="B22" s="36" t="s">
+        <v>77</v>
+      </c>
+      <c r="C22" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="D22" s="31">
+        <v>13</v>
+      </c>
+      <c r="E22" s="32">
+        <v>3</v>
+      </c>
+      <c r="F22" s="32">
+        <v>1</v>
+      </c>
+      <c r="G22" s="32" t="s">
+        <v>78</v>
+      </c>
+      <c r="H22" s="33" t="s">
+        <v>79</v>
+      </c>
+      <c r="I22" s="37"/>
+      <c r="J22" s="28"/>
+      <c r="K22" s="28"/>
+      <c r="L22" s="28"/>
+      <c r="M22" s="28"/>
+      <c r="N22" s="28"/>
+      <c r="O22" s="28"/>
+      <c r="P22" s="28"/>
+      <c r="Q22" s="28"/>
+      <c r="R22" s="28"/>
+      <c r="S22" s="28"/>
+      <c r="T22" s="28"/>
+      <c r="U22" s="28"/>
+      <c r="V22" s="28"/>
+      <c r="W22" s="28"/>
+      <c r="X22" s="28"/>
+      <c r="Y22" s="28"/>
+      <c r="Z22" s="28"/>
+    </row>
+    <row r="23" spans="1:26" s="53" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A23" s="32">
+        <v>21</v>
+      </c>
+      <c r="B23" s="36" t="s">
+        <v>80</v>
+      </c>
+      <c r="C23" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="D23" s="31">
+        <v>13</v>
+      </c>
+      <c r="E23" s="32">
+        <v>3</v>
+      </c>
+      <c r="F23" s="32">
+        <v>1</v>
+      </c>
+      <c r="G23" s="32" t="s">
+        <v>78</v>
+      </c>
+      <c r="H23" s="33" t="s">
+        <v>81</v>
+      </c>
+      <c r="I23" s="37"/>
+      <c r="J23" s="28"/>
+      <c r="K23" s="28"/>
+      <c r="L23" s="28"/>
+      <c r="M23" s="28"/>
+      <c r="N23" s="28"/>
+      <c r="O23" s="28"/>
+      <c r="P23" s="28"/>
+      <c r="Q23" s="28"/>
+      <c r="R23" s="28"/>
+      <c r="S23" s="28"/>
+      <c r="T23" s="28"/>
+      <c r="U23" s="28"/>
+      <c r="V23" s="28"/>
+      <c r="W23" s="28"/>
+      <c r="X23" s="28"/>
+      <c r="Y23" s="28"/>
+      <c r="Z23" s="28"/>
+    </row>
+    <row r="24" spans="1:26" s="53" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A24" s="32">
+        <v>22</v>
+      </c>
+      <c r="B24" s="36" t="s">
+        <v>82</v>
+      </c>
+      <c r="C24" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="D24" s="31">
+        <v>13</v>
+      </c>
+      <c r="E24" s="32">
+        <v>3</v>
+      </c>
+      <c r="F24" s="32">
+        <v>1</v>
+      </c>
+      <c r="G24" s="32" t="s">
+        <v>67</v>
+      </c>
+      <c r="H24" s="33" t="s">
+        <v>83</v>
+      </c>
+      <c r="I24" s="37"/>
+      <c r="J24" s="28"/>
+      <c r="K24" s="28"/>
+      <c r="L24" s="28"/>
+      <c r="M24" s="28"/>
+      <c r="N24" s="28"/>
+      <c r="O24" s="28"/>
+      <c r="P24" s="28"/>
+      <c r="Q24" s="28"/>
+      <c r="R24" s="28"/>
+      <c r="S24" s="28"/>
+      <c r="T24" s="28"/>
+      <c r="U24" s="28"/>
+      <c r="V24" s="28"/>
+      <c r="W24" s="28"/>
+      <c r="X24" s="28"/>
+      <c r="Y24" s="28"/>
+      <c r="Z24" s="28"/>
+    </row>
+    <row r="25" spans="1:26" s="53" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A25" s="32">
+        <v>23</v>
+      </c>
+      <c r="B25" s="36" t="s">
+        <v>84</v>
+      </c>
+      <c r="C25" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="D25" s="31">
+        <v>13</v>
+      </c>
+      <c r="E25" s="32">
+        <v>3</v>
+      </c>
+      <c r="F25" s="32">
+        <v>1</v>
+      </c>
+      <c r="G25" s="32" t="s">
+        <v>67</v>
+      </c>
+      <c r="H25" s="33" t="s">
+        <v>85</v>
+      </c>
+      <c r="I25" s="37"/>
+      <c r="J25" s="28"/>
+      <c r="K25" s="38"/>
+      <c r="L25" s="28"/>
+      <c r="M25" s="28"/>
+      <c r="N25" s="28"/>
+      <c r="O25" s="28"/>
+      <c r="P25" s="28"/>
+      <c r="Q25" s="28"/>
+      <c r="R25" s="28"/>
+      <c r="S25" s="28"/>
+      <c r="T25" s="28"/>
+      <c r="U25" s="28"/>
+      <c r="V25" s="28"/>
+      <c r="W25" s="28"/>
+      <c r="X25" s="28"/>
+      <c r="Y25" s="28"/>
+      <c r="Z25" s="28"/>
+    </row>
+    <row r="26" spans="1:26" s="53" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A26" s="32">
+        <v>24</v>
+      </c>
+      <c r="B26" s="36" t="s">
+        <v>86</v>
+      </c>
+      <c r="C26" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="D26" s="31">
+        <v>13</v>
+      </c>
+      <c r="E26" s="32">
+        <v>3</v>
+      </c>
+      <c r="F26" s="32">
+        <v>1</v>
+      </c>
+      <c r="G26" s="32" t="s">
+        <v>76</v>
+      </c>
+      <c r="H26" s="33" t="s">
+        <v>87</v>
+      </c>
+      <c r="I26" s="37"/>
+      <c r="J26" s="28"/>
+      <c r="K26" s="28"/>
+      <c r="L26" s="28"/>
+      <c r="M26" s="28"/>
+      <c r="N26" s="28"/>
+      <c r="O26" s="28"/>
+      <c r="P26" s="28"/>
+      <c r="Q26" s="28"/>
+      <c r="R26" s="28"/>
+      <c r="S26" s="28"/>
+      <c r="T26" s="28"/>
+      <c r="U26" s="28"/>
+      <c r="V26" s="28"/>
+      <c r="W26" s="28"/>
+      <c r="X26" s="28"/>
+      <c r="Y26" s="28"/>
+      <c r="Z26" s="28"/>
+    </row>
+    <row r="27" spans="1:26" s="53" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A27" s="32">
+        <v>25</v>
+      </c>
+      <c r="B27" s="36" t="s">
+        <v>88</v>
+      </c>
+      <c r="C27" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="D27" s="31">
+        <v>20</v>
+      </c>
+      <c r="E27" s="32">
+        <v>4</v>
+      </c>
+      <c r="F27" s="32">
+        <v>1</v>
+      </c>
+      <c r="G27" s="32" t="s">
+        <v>67</v>
+      </c>
+      <c r="H27" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="I27" s="37"/>
+      <c r="J27" s="28"/>
+      <c r="K27" s="28"/>
+      <c r="L27" s="28"/>
+      <c r="M27" s="28"/>
+      <c r="N27" s="28"/>
+      <c r="O27" s="28"/>
+      <c r="P27" s="28"/>
+      <c r="Q27" s="28"/>
+      <c r="R27" s="28"/>
+      <c r="S27" s="28"/>
+      <c r="T27" s="28"/>
+      <c r="U27" s="28"/>
+      <c r="V27" s="28"/>
+      <c r="W27" s="28"/>
+      <c r="X27" s="28"/>
+      <c r="Y27" s="28"/>
+      <c r="Z27" s="28"/>
+    </row>
+    <row r="28" spans="1:26" s="53" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A28" s="32">
+        <v>26</v>
+      </c>
+      <c r="B28" s="36" t="s">
+        <v>90</v>
+      </c>
+      <c r="C28" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="D28" s="31">
+        <v>20</v>
+      </c>
+      <c r="E28" s="32">
+        <v>4</v>
+      </c>
+      <c r="F28" s="32">
+        <v>1</v>
+      </c>
+      <c r="G28" s="32" t="s">
+        <v>67</v>
+      </c>
+      <c r="H28" s="33" t="s">
+        <v>91</v>
+      </c>
+      <c r="I28" s="37"/>
+      <c r="J28" s="28"/>
+      <c r="K28" s="28"/>
+      <c r="L28" s="28"/>
+      <c r="M28" s="28"/>
+      <c r="N28" s="28"/>
+      <c r="O28" s="28"/>
+      <c r="P28" s="28"/>
+      <c r="Q28" s="28"/>
+      <c r="R28" s="28"/>
+      <c r="S28" s="28"/>
+      <c r="T28" s="28"/>
+      <c r="U28" s="28"/>
+      <c r="V28" s="28"/>
+      <c r="W28" s="28"/>
+      <c r="X28" s="28"/>
+      <c r="Y28" s="28"/>
+      <c r="Z28" s="28"/>
+    </row>
+    <row r="29" spans="1:26" s="53" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A29" s="32">
+        <v>27</v>
+      </c>
+      <c r="B29" s="36" t="s">
+        <v>92</v>
+      </c>
+      <c r="C29" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="D29" s="31">
+        <v>20</v>
+      </c>
+      <c r="E29" s="32">
+        <v>4</v>
+      </c>
+      <c r="F29" s="32">
+        <v>1</v>
+      </c>
+      <c r="G29" s="32" t="s">
+        <v>67</v>
+      </c>
+      <c r="H29" s="33" t="s">
+        <v>93</v>
+      </c>
+      <c r="I29" s="37"/>
+      <c r="J29" s="28"/>
+      <c r="K29" s="28"/>
+      <c r="L29" s="28"/>
+      <c r="M29" s="28"/>
+      <c r="N29" s="28"/>
+      <c r="O29" s="28"/>
+      <c r="P29" s="28"/>
+      <c r="Q29" s="28"/>
+      <c r="R29" s="28"/>
+      <c r="S29" s="28"/>
+      <c r="T29" s="28"/>
+      <c r="U29" s="28"/>
+      <c r="V29" s="28"/>
+      <c r="W29" s="28"/>
+      <c r="X29" s="28"/>
+      <c r="Y29" s="28"/>
+      <c r="Z29" s="28"/>
+    </row>
+    <row r="30" spans="1:26" s="53" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A30" s="32">
+        <v>28</v>
+      </c>
+      <c r="B30" s="36" t="s">
+        <v>94</v>
+      </c>
+      <c r="C30" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="D30" s="31">
+        <v>13</v>
+      </c>
+      <c r="E30" s="32">
+        <v>4</v>
+      </c>
+      <c r="F30" s="32">
+        <v>1</v>
+      </c>
+      <c r="G30" s="32" t="s">
+        <v>67</v>
+      </c>
+      <c r="H30" s="33" t="s">
+        <v>95</v>
+      </c>
+      <c r="I30" s="37"/>
+      <c r="J30" s="28"/>
+      <c r="K30" s="28"/>
+      <c r="L30" s="28"/>
+      <c r="M30" s="28"/>
+      <c r="N30" s="28"/>
+      <c r="O30" s="28"/>
+      <c r="P30" s="28"/>
+      <c r="Q30" s="28"/>
+      <c r="R30" s="28"/>
+      <c r="S30" s="28"/>
+      <c r="T30" s="28"/>
+      <c r="U30" s="28"/>
+      <c r="V30" s="28"/>
+      <c r="W30" s="28"/>
+      <c r="X30" s="28"/>
+      <c r="Y30" s="28"/>
+      <c r="Z30" s="28"/>
+    </row>
+    <row r="31" spans="1:26" s="53" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A31" s="32">
+        <v>29</v>
+      </c>
+      <c r="B31" s="36" t="s">
+        <v>75</v>
+      </c>
+      <c r="C31" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="D31" s="31">
+        <v>20</v>
+      </c>
+      <c r="E31" s="32">
+        <v>4</v>
+      </c>
+      <c r="F31" s="32">
+        <v>1</v>
+      </c>
+      <c r="G31" s="32" t="s">
+        <v>76</v>
+      </c>
+      <c r="H31" s="33"/>
+      <c r="I31" s="37"/>
+      <c r="J31" s="28"/>
+      <c r="K31" s="28"/>
+      <c r="L31" s="28"/>
+      <c r="M31" s="28"/>
+      <c r="N31" s="28"/>
+      <c r="O31" s="28"/>
+      <c r="P31" s="28"/>
+      <c r="Q31" s="28"/>
+      <c r="R31" s="28"/>
+      <c r="S31" s="28"/>
+      <c r="T31" s="28"/>
+      <c r="U31" s="28"/>
+      <c r="V31" s="28"/>
+      <c r="W31" s="28"/>
+      <c r="X31" s="28"/>
+      <c r="Y31" s="28"/>
+      <c r="Z31" s="28"/>
+    </row>
+    <row r="32" spans="1:26" s="53" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A32" s="32">
+        <v>30</v>
+      </c>
+      <c r="B32" s="36" t="s">
+        <v>96</v>
+      </c>
+      <c r="C32" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="D32" s="31">
+        <v>20</v>
+      </c>
+      <c r="E32" s="32">
+        <v>5</v>
+      </c>
+      <c r="F32" s="32">
+        <v>1</v>
+      </c>
+      <c r="G32" s="32" t="s">
+        <v>97</v>
+      </c>
+      <c r="H32" s="33"/>
+      <c r="I32" s="37"/>
+      <c r="J32" s="28"/>
+      <c r="K32" s="28"/>
+      <c r="L32" s="28"/>
+      <c r="M32" s="28"/>
+      <c r="N32" s="28"/>
+      <c r="O32" s="28"/>
+      <c r="P32" s="28"/>
+      <c r="Q32" s="28"/>
+      <c r="R32" s="28"/>
+      <c r="S32" s="28"/>
+      <c r="T32" s="28"/>
+      <c r="U32" s="28"/>
+      <c r="V32" s="28"/>
+      <c r="W32" s="28"/>
+      <c r="X32" s="28"/>
+      <c r="Y32" s="28"/>
+      <c r="Z32" s="28"/>
+    </row>
+    <row r="33" spans="1:26" s="53" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A33" s="32">
+        <v>31</v>
+      </c>
+      <c r="B33" s="36" t="s">
+        <v>98</v>
+      </c>
+      <c r="C33" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="D33" s="31">
+        <v>13</v>
+      </c>
+      <c r="E33" s="32">
+        <v>5</v>
+      </c>
+      <c r="F33" s="32">
+        <v>1</v>
+      </c>
+      <c r="G33" s="32" t="s">
+        <v>97</v>
+      </c>
+      <c r="H33" s="33" t="s">
+        <v>101</v>
+      </c>
+      <c r="I33" s="37"/>
+      <c r="J33" s="28"/>
+      <c r="K33" s="38"/>
+      <c r="L33" s="28"/>
+      <c r="M33" s="28"/>
+      <c r="N33" s="28"/>
+      <c r="O33" s="28"/>
+      <c r="P33" s="28"/>
+      <c r="Q33" s="28"/>
+      <c r="R33" s="28"/>
+      <c r="S33" s="28"/>
+      <c r="T33" s="28"/>
+      <c r="U33" s="28"/>
+      <c r="V33" s="28"/>
+      <c r="W33" s="28"/>
+      <c r="X33" s="28"/>
+      <c r="Y33" s="28"/>
+      <c r="Z33" s="28"/>
+    </row>
+    <row r="34" spans="1:26" s="53" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A34" s="90">
+        <v>32</v>
+      </c>
+      <c r="B34" s="36" t="s">
+        <v>99</v>
+      </c>
+      <c r="C34" s="92" t="s">
+        <v>37</v>
+      </c>
+      <c r="D34" s="93">
+        <v>13</v>
+      </c>
+      <c r="E34" s="90">
+        <v>5</v>
+      </c>
+      <c r="F34" s="90">
+        <v>1</v>
+      </c>
+      <c r="G34" s="90" t="s">
+        <v>97</v>
+      </c>
+      <c r="H34" s="85" t="s">
+        <v>101</v>
+      </c>
+      <c r="I34" s="86"/>
+      <c r="J34" s="28"/>
+      <c r="K34" s="28"/>
+      <c r="L34" s="28"/>
+      <c r="M34" s="28"/>
+      <c r="N34" s="28"/>
+      <c r="O34" s="28"/>
+      <c r="P34" s="28"/>
+      <c r="Q34" s="28"/>
+      <c r="R34" s="28"/>
+      <c r="S34" s="28"/>
+      <c r="T34" s="28"/>
+      <c r="U34" s="28"/>
+      <c r="V34" s="28"/>
+      <c r="W34" s="28"/>
+      <c r="X34" s="28"/>
+      <c r="Y34" s="28"/>
+      <c r="Z34" s="28"/>
+    </row>
+    <row r="35" spans="1:26" s="53" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A35" s="32">
+        <v>33</v>
+      </c>
+      <c r="B35" s="36" t="s">
+        <v>100</v>
+      </c>
+      <c r="C35" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="D35" s="31">
+        <v>13</v>
+      </c>
+      <c r="E35" s="32">
+        <v>5</v>
+      </c>
+      <c r="F35" s="32">
+        <v>1</v>
+      </c>
+      <c r="G35" s="32" t="s">
+        <v>97</v>
+      </c>
+      <c r="H35" s="33" t="s">
+        <v>102</v>
+      </c>
+      <c r="I35" s="37"/>
+      <c r="J35" s="28"/>
+      <c r="K35" s="28"/>
+      <c r="L35" s="28"/>
+      <c r="M35" s="28"/>
+      <c r="N35" s="28"/>
+      <c r="O35" s="28"/>
+      <c r="P35" s="28"/>
+      <c r="Q35" s="28"/>
+      <c r="R35" s="28"/>
+      <c r="S35" s="28"/>
+      <c r="T35" s="28"/>
+      <c r="U35" s="28"/>
+      <c r="V35" s="28"/>
+      <c r="W35" s="28"/>
+      <c r="X35" s="28"/>
+      <c r="Y35" s="28"/>
+      <c r="Z35" s="28"/>
+    </row>
+    <row r="36" spans="1:26" s="53" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A36" s="90">
+        <v>34</v>
+      </c>
+      <c r="B36" s="91" t="s">
+        <v>103</v>
+      </c>
+      <c r="C36" s="92" t="s">
+        <v>37</v>
+      </c>
+      <c r="D36" s="93">
+        <v>13</v>
+      </c>
+      <c r="E36" s="90">
+        <v>5</v>
+      </c>
+      <c r="F36" s="90">
+        <v>1</v>
+      </c>
+      <c r="G36" s="90" t="s">
+        <v>76</v>
+      </c>
+      <c r="H36" s="85"/>
+      <c r="I36" s="86"/>
+      <c r="J36" s="28"/>
+      <c r="K36" s="28"/>
+      <c r="L36" s="28"/>
+      <c r="M36" s="28"/>
+      <c r="N36" s="28"/>
+      <c r="O36" s="28"/>
+      <c r="P36" s="28"/>
+      <c r="Q36" s="28"/>
+      <c r="R36" s="28"/>
+      <c r="S36" s="28"/>
+      <c r="T36" s="28"/>
+      <c r="U36" s="28"/>
+      <c r="V36" s="28"/>
+      <c r="W36" s="28"/>
+      <c r="X36" s="28"/>
+      <c r="Y36" s="28"/>
+      <c r="Z36" s="28"/>
+    </row>
+    <row r="37" spans="1:26" s="53" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A37" s="32"/>
+      <c r="B37" s="36"/>
+      <c r="C37" s="35"/>
+      <c r="D37" s="31"/>
+      <c r="E37" s="32"/>
+      <c r="F37" s="32"/>
+      <c r="G37" s="32"/>
+      <c r="H37" s="33"/>
+      <c r="I37" s="37"/>
+      <c r="J37" s="28"/>
+      <c r="K37" s="38"/>
+      <c r="L37" s="28"/>
+      <c r="M37" s="28"/>
+      <c r="N37" s="28"/>
+      <c r="O37" s="28"/>
+      <c r="P37" s="28"/>
+      <c r="Q37" s="28"/>
+      <c r="R37" s="28"/>
+      <c r="S37" s="28"/>
+      <c r="T37" s="28"/>
+      <c r="U37" s="28"/>
+      <c r="V37" s="28"/>
+      <c r="W37" s="28"/>
+      <c r="X37" s="28"/>
+      <c r="Y37" s="28"/>
+      <c r="Z37" s="28"/>
+    </row>
+    <row r="38" spans="1:26" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="39"/>
+      <c r="B38" s="39"/>
+      <c r="C38" s="39"/>
+      <c r="D38" s="39"/>
+      <c r="E38" s="39"/>
+      <c r="F38" s="39"/>
+      <c r="G38" s="40"/>
+      <c r="H38" s="39"/>
+      <c r="I38" s="39"/>
+      <c r="J38" s="39"/>
+      <c r="K38" s="39"/>
+      <c r="L38" s="39"/>
+      <c r="M38" s="39"/>
+      <c r="N38" s="39"/>
+      <c r="O38" s="39"/>
+      <c r="P38" s="39"/>
+      <c r="Q38" s="39"/>
+      <c r="R38" s="39"/>
+      <c r="S38" s="39"/>
+      <c r="T38" s="39"/>
+      <c r="U38" s="39"/>
+      <c r="V38" s="39"/>
+      <c r="W38" s="39"/>
+      <c r="X38" s="39"/>
+      <c r="Y38" s="39"/>
+      <c r="Z38" s="39"/>
+    </row>
+    <row r="39" spans="1:26" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="39"/>
+      <c r="B39" s="39"/>
+      <c r="C39" s="39"/>
+      <c r="D39" s="39"/>
+      <c r="E39" s="39"/>
+      <c r="F39" s="39"/>
+      <c r="G39" s="40"/>
+      <c r="H39" s="39"/>
+      <c r="I39" s="39"/>
+      <c r="J39" s="39"/>
+      <c r="K39" s="41"/>
+      <c r="L39" s="39"/>
+      <c r="M39" s="39"/>
+      <c r="N39" s="39"/>
+      <c r="O39" s="39"/>
+      <c r="P39" s="39"/>
+      <c r="Q39" s="39"/>
+      <c r="R39" s="39"/>
+      <c r="S39" s="39"/>
+      <c r="T39" s="39"/>
+      <c r="U39" s="39"/>
+      <c r="V39" s="39"/>
+      <c r="W39" s="39"/>
+      <c r="X39" s="39"/>
+      <c r="Y39" s="39"/>
+      <c r="Z39" s="39"/>
+    </row>
+    <row r="40" spans="1:26" ht="27.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="39"/>
+      <c r="B40" s="39"/>
+      <c r="C40" s="39"/>
+      <c r="D40" s="39"/>
+      <c r="E40" s="39"/>
+      <c r="F40" s="39"/>
+      <c r="G40" s="42" t="s">
+        <v>35</v>
+      </c>
+      <c r="H40" s="43"/>
+      <c r="I40" s="43"/>
+      <c r="J40" s="39"/>
+      <c r="K40" s="39"/>
+      <c r="L40" s="39"/>
+      <c r="M40" s="39"/>
+      <c r="N40" s="39"/>
+      <c r="O40" s="39"/>
+      <c r="P40" s="39"/>
+      <c r="Q40" s="39"/>
+      <c r="R40" s="39"/>
+      <c r="S40" s="39"/>
+      <c r="T40" s="39"/>
+      <c r="U40" s="39"/>
+      <c r="V40" s="39"/>
+      <c r="W40" s="39"/>
+      <c r="X40" s="39"/>
+      <c r="Y40" s="39"/>
+      <c r="Z40" s="39"/>
+    </row>
+    <row r="41" spans="1:26" ht="27.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="39"/>
+      <c r="B41" s="39"/>
+      <c r="C41" s="39"/>
+      <c r="D41" s="39"/>
+      <c r="E41" s="39"/>
+      <c r="F41" s="39"/>
+      <c r="G41" s="44" t="s">
         <v>36</v>
       </c>
-      <c r="H21" s="45"/>
-      <c r="I21" s="45"/>
-      <c r="J21" s="41"/>
-      <c r="K21" s="41"/>
-      <c r="L21" s="41"/>
-      <c r="M21" s="41"/>
-      <c r="N21" s="41"/>
-      <c r="O21" s="41"/>
-      <c r="P21" s="41"/>
-      <c r="Q21" s="41"/>
-      <c r="R21" s="41"/>
-      <c r="S21" s="41"/>
-      <c r="T21" s="41"/>
-      <c r="U21" s="41"/>
-      <c r="V21" s="41"/>
-      <c r="W21" s="41"/>
-      <c r="X21" s="41"/>
-      <c r="Y21" s="41"/>
-      <c r="Z21" s="41"/>
-    </row>
-    <row r="22" spans="1:26" ht="27.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="41"/>
-      <c r="B22" s="41"/>
-      <c r="C22" s="41"/>
-      <c r="D22" s="41"/>
-      <c r="E22" s="41"/>
-      <c r="F22" s="41"/>
-      <c r="G22" s="46" t="s">
-        <v>37</v>
-      </c>
-      <c r="H22" s="45"/>
-      <c r="I22" s="47"/>
-      <c r="J22" s="41"/>
-      <c r="K22" s="41"/>
-      <c r="L22" s="41"/>
-      <c r="M22" s="41"/>
-      <c r="N22" s="41"/>
-      <c r="O22" s="41"/>
-      <c r="P22" s="41"/>
-      <c r="Q22" s="41"/>
-      <c r="R22" s="41"/>
-      <c r="S22" s="41"/>
-      <c r="T22" s="41"/>
-      <c r="U22" s="41"/>
-      <c r="V22" s="41"/>
-      <c r="W22" s="41"/>
-      <c r="X22" s="41"/>
-      <c r="Y22" s="41"/>
-      <c r="Z22" s="41"/>
-    </row>
-    <row r="23" spans="1:26" ht="27.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="41"/>
-      <c r="B23" s="41"/>
-      <c r="C23" s="41"/>
-      <c r="D23" s="41"/>
-      <c r="E23" s="41"/>
-      <c r="F23" s="41"/>
-      <c r="G23" s="46" t="s">
-        <v>37</v>
-      </c>
-      <c r="H23" s="45"/>
-      <c r="I23" s="47"/>
-      <c r="J23" s="41"/>
-      <c r="K23" s="41"/>
-      <c r="L23" s="41"/>
-      <c r="M23" s="41"/>
-      <c r="N23" s="41"/>
-      <c r="O23" s="41"/>
-      <c r="P23" s="41"/>
-      <c r="Q23" s="41"/>
-      <c r="R23" s="41"/>
-      <c r="S23" s="41"/>
-      <c r="T23" s="41"/>
-      <c r="U23" s="41"/>
-      <c r="V23" s="41"/>
-      <c r="W23" s="41"/>
-      <c r="X23" s="41"/>
-      <c r="Y23" s="41"/>
-      <c r="Z23" s="41"/>
-    </row>
-    <row r="24" spans="1:26" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="41"/>
-      <c r="B24" s="41"/>
-      <c r="C24" s="41"/>
-      <c r="D24" s="41"/>
-      <c r="E24" s="41"/>
-      <c r="F24" s="41"/>
-      <c r="G24" s="42"/>
-      <c r="H24" s="41"/>
-      <c r="I24" s="41"/>
-      <c r="J24" s="41"/>
-      <c r="K24" s="41"/>
-      <c r="L24" s="41"/>
-      <c r="M24" s="41"/>
-      <c r="N24" s="41"/>
-      <c r="O24" s="41"/>
-      <c r="P24" s="41"/>
-      <c r="Q24" s="41"/>
-      <c r="R24" s="41"/>
-      <c r="S24" s="41"/>
-      <c r="T24" s="41"/>
-      <c r="U24" s="41"/>
-      <c r="V24" s="41"/>
-      <c r="W24" s="41"/>
-      <c r="X24" s="41"/>
-      <c r="Y24" s="41"/>
-      <c r="Z24" s="41"/>
-    </row>
-    <row r="25" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="41"/>
-      <c r="B25" s="41"/>
-      <c r="C25" s="41"/>
-      <c r="D25" s="41"/>
-      <c r="E25" s="41"/>
-      <c r="F25" s="41"/>
-      <c r="G25" s="42"/>
-      <c r="H25" s="41"/>
-      <c r="I25" s="41"/>
-      <c r="J25" s="41"/>
-      <c r="K25" s="41"/>
-      <c r="L25" s="41"/>
-      <c r="M25" s="41"/>
-      <c r="N25" s="41"/>
-      <c r="O25" s="41"/>
-      <c r="P25" s="41"/>
-      <c r="Q25" s="41"/>
-      <c r="R25" s="41"/>
-      <c r="S25" s="41"/>
-      <c r="T25" s="41"/>
-      <c r="U25" s="41"/>
-      <c r="V25" s="41"/>
-      <c r="W25" s="41"/>
-      <c r="X25" s="41"/>
-      <c r="Y25" s="41"/>
-      <c r="Z25" s="41"/>
-    </row>
-    <row r="26" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="41"/>
-      <c r="B26" s="41"/>
-      <c r="C26" s="41"/>
-      <c r="D26" s="41"/>
-      <c r="E26" s="41"/>
-      <c r="F26" s="41"/>
-      <c r="G26" s="42"/>
-      <c r="H26" s="41"/>
-      <c r="I26" s="41"/>
-      <c r="J26" s="41"/>
-      <c r="K26" s="41"/>
-      <c r="L26" s="41"/>
-      <c r="M26" s="41"/>
-      <c r="N26" s="41"/>
-      <c r="O26" s="41"/>
-      <c r="P26" s="41"/>
-      <c r="Q26" s="41"/>
-      <c r="R26" s="41"/>
-      <c r="S26" s="41"/>
-      <c r="T26" s="41"/>
-      <c r="U26" s="41"/>
-      <c r="V26" s="41"/>
-      <c r="W26" s="41"/>
-      <c r="X26" s="41"/>
-      <c r="Y26" s="41"/>
-      <c r="Z26" s="41"/>
-    </row>
-    <row r="27" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="41"/>
-      <c r="B27" s="41"/>
-      <c r="C27" s="41"/>
-      <c r="D27" s="41"/>
-      <c r="E27" s="41"/>
-      <c r="F27" s="41"/>
-      <c r="G27" s="42"/>
-      <c r="H27" s="41"/>
-      <c r="I27" s="41"/>
-      <c r="J27" s="41"/>
-      <c r="K27" s="41"/>
-      <c r="L27" s="41"/>
-      <c r="M27" s="41"/>
-      <c r="N27" s="41"/>
-      <c r="O27" s="41"/>
-      <c r="P27" s="41"/>
-      <c r="Q27" s="41"/>
-      <c r="R27" s="41"/>
-      <c r="S27" s="41"/>
-      <c r="T27" s="41"/>
-      <c r="U27" s="41"/>
-      <c r="V27" s="41"/>
-      <c r="W27" s="41"/>
-      <c r="X27" s="41"/>
-      <c r="Y27" s="41"/>
-      <c r="Z27" s="41"/>
-    </row>
-    <row r="28" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="41"/>
-      <c r="B28" s="41"/>
-      <c r="C28" s="41"/>
-      <c r="D28" s="41"/>
-      <c r="E28" s="41"/>
-      <c r="F28" s="41"/>
-      <c r="G28" s="42"/>
-      <c r="H28" s="41"/>
-      <c r="I28" s="41"/>
-      <c r="J28" s="41"/>
-      <c r="K28" s="41"/>
-      <c r="L28" s="41"/>
-      <c r="M28" s="41"/>
-      <c r="N28" s="41"/>
-      <c r="O28" s="41"/>
-      <c r="P28" s="41"/>
-      <c r="Q28" s="41"/>
-      <c r="R28" s="41"/>
-      <c r="S28" s="41"/>
-      <c r="T28" s="41"/>
-      <c r="U28" s="41"/>
-      <c r="V28" s="41"/>
-      <c r="W28" s="41"/>
-      <c r="X28" s="41"/>
-      <c r="Y28" s="41"/>
-      <c r="Z28" s="41"/>
-    </row>
-    <row r="29" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="41"/>
-      <c r="B29" s="41"/>
-      <c r="C29" s="41"/>
-      <c r="D29" s="41"/>
-      <c r="E29" s="41"/>
-      <c r="F29" s="41"/>
-      <c r="G29" s="42"/>
-      <c r="H29" s="41"/>
-      <c r="I29" s="41"/>
-      <c r="J29" s="41"/>
-      <c r="K29" s="41"/>
-      <c r="L29" s="41"/>
-      <c r="M29" s="41"/>
-      <c r="N29" s="41"/>
-      <c r="O29" s="41"/>
-      <c r="P29" s="41"/>
-      <c r="Q29" s="41"/>
-      <c r="R29" s="41"/>
-      <c r="S29" s="41"/>
-      <c r="T29" s="41"/>
-      <c r="U29" s="41"/>
-      <c r="V29" s="41"/>
-      <c r="W29" s="41"/>
-      <c r="X29" s="41"/>
-      <c r="Y29" s="41"/>
-      <c r="Z29" s="41"/>
-    </row>
-    <row r="30" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="48"/>
-      <c r="B30" s="49"/>
-      <c r="C30" s="50"/>
-      <c r="D30" s="48"/>
-      <c r="E30" s="48"/>
-      <c r="F30" s="48"/>
-      <c r="G30" s="51"/>
-      <c r="H30" s="49"/>
-      <c r="I30" s="41"/>
-      <c r="J30" s="41"/>
-      <c r="K30" s="41"/>
-      <c r="L30" s="41"/>
-      <c r="M30" s="41"/>
-      <c r="N30" s="41"/>
-      <c r="O30" s="41"/>
-      <c r="P30" s="41"/>
-      <c r="Q30" s="41"/>
-      <c r="R30" s="41"/>
-      <c r="S30" s="41"/>
-      <c r="T30" s="41"/>
-      <c r="U30" s="41"/>
-      <c r="V30" s="41"/>
-      <c r="W30" s="41"/>
-      <c r="X30" s="41"/>
-      <c r="Y30" s="41"/>
-      <c r="Z30" s="41"/>
-    </row>
-    <row r="31" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="48"/>
-      <c r="B31" s="49"/>
-      <c r="C31" s="50"/>
-      <c r="D31" s="48"/>
-      <c r="E31" s="48"/>
-      <c r="F31" s="48"/>
-      <c r="G31" s="51"/>
-      <c r="H31" s="49"/>
-      <c r="I31" s="41"/>
-      <c r="J31" s="41"/>
-      <c r="K31" s="41"/>
-      <c r="L31" s="41"/>
-      <c r="M31" s="41"/>
-      <c r="N31" s="41"/>
-      <c r="O31" s="41"/>
-      <c r="P31" s="41"/>
-      <c r="Q31" s="41"/>
-      <c r="R31" s="41"/>
-      <c r="S31" s="41"/>
-      <c r="T31" s="41"/>
-      <c r="U31" s="41"/>
-      <c r="V31" s="41"/>
-      <c r="W31" s="41"/>
-      <c r="X31" s="41"/>
-      <c r="Y31" s="41"/>
-      <c r="Z31" s="41"/>
-    </row>
-    <row r="32" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="48"/>
-      <c r="B32" s="49"/>
-      <c r="C32" s="50"/>
-      <c r="D32" s="48"/>
-      <c r="E32" s="48"/>
-      <c r="F32" s="48"/>
-      <c r="G32" s="51"/>
-      <c r="H32" s="49"/>
-      <c r="I32" s="41"/>
-      <c r="J32" s="41"/>
-      <c r="K32" s="41"/>
-      <c r="L32" s="41"/>
-      <c r="M32" s="41"/>
-      <c r="N32" s="41"/>
-      <c r="O32" s="41"/>
-      <c r="P32" s="41"/>
-      <c r="Q32" s="41"/>
-      <c r="R32" s="41"/>
-      <c r="S32" s="41"/>
-      <c r="T32" s="41"/>
-      <c r="U32" s="41"/>
-      <c r="V32" s="41"/>
-      <c r="W32" s="41"/>
-      <c r="X32" s="41"/>
-      <c r="Y32" s="41"/>
-      <c r="Z32" s="41"/>
-    </row>
-    <row r="33" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="48"/>
-      <c r="B33" s="49"/>
-      <c r="C33" s="50"/>
-      <c r="D33" s="48"/>
-      <c r="E33" s="48"/>
-      <c r="F33" s="48"/>
-      <c r="G33" s="51"/>
-      <c r="H33" s="49"/>
-      <c r="I33" s="41"/>
-      <c r="J33" s="41"/>
-      <c r="K33" s="41"/>
-      <c r="L33" s="41"/>
-      <c r="M33" s="41"/>
-      <c r="N33" s="41"/>
-      <c r="O33" s="41"/>
-      <c r="P33" s="41"/>
-      <c r="Q33" s="41"/>
-      <c r="R33" s="41"/>
-      <c r="S33" s="41"/>
-      <c r="T33" s="41"/>
-      <c r="U33" s="41"/>
-      <c r="V33" s="41"/>
-      <c r="W33" s="41"/>
-      <c r="X33" s="41"/>
-      <c r="Y33" s="41"/>
-      <c r="Z33" s="41"/>
-    </row>
-    <row r="34" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="48"/>
-      <c r="B34" s="49"/>
-      <c r="C34" s="50"/>
-      <c r="D34" s="48"/>
-      <c r="E34" s="48"/>
-      <c r="F34" s="48"/>
-      <c r="G34" s="51"/>
-      <c r="H34" s="49"/>
-      <c r="I34" s="41"/>
-      <c r="J34" s="41"/>
-      <c r="K34" s="41"/>
-      <c r="L34" s="41"/>
-      <c r="M34" s="41"/>
-      <c r="N34" s="41"/>
-      <c r="O34" s="41"/>
-      <c r="P34" s="41"/>
-      <c r="Q34" s="41"/>
-      <c r="R34" s="41"/>
-      <c r="S34" s="41"/>
-      <c r="T34" s="41"/>
-      <c r="U34" s="41"/>
-      <c r="V34" s="41"/>
-      <c r="W34" s="41"/>
-      <c r="X34" s="41"/>
-      <c r="Y34" s="41"/>
-      <c r="Z34" s="41"/>
-    </row>
-    <row r="35" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="48"/>
-      <c r="B35" s="49"/>
-      <c r="C35" s="50"/>
-      <c r="D35" s="48"/>
-      <c r="E35" s="48"/>
-      <c r="F35" s="48"/>
-      <c r="G35" s="51"/>
-      <c r="H35" s="49"/>
-      <c r="I35" s="41"/>
-      <c r="J35" s="41"/>
-      <c r="K35" s="41"/>
-      <c r="L35" s="41"/>
-      <c r="M35" s="41"/>
-      <c r="N35" s="41"/>
-      <c r="O35" s="41"/>
-      <c r="P35" s="41"/>
-      <c r="Q35" s="41"/>
-      <c r="R35" s="41"/>
-      <c r="S35" s="41"/>
-      <c r="T35" s="41"/>
-      <c r="U35" s="41"/>
-      <c r="V35" s="41"/>
-      <c r="W35" s="41"/>
-      <c r="X35" s="41"/>
-      <c r="Y35" s="41"/>
-      <c r="Z35" s="41"/>
-    </row>
-    <row r="36" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="48"/>
-      <c r="B36" s="49"/>
-      <c r="C36" s="50"/>
-      <c r="D36" s="48"/>
-      <c r="E36" s="48"/>
-      <c r="F36" s="48"/>
-      <c r="G36" s="51"/>
-      <c r="H36" s="49"/>
-      <c r="I36" s="41"/>
-      <c r="J36" s="41"/>
-      <c r="K36" s="41"/>
-      <c r="L36" s="41"/>
-      <c r="M36" s="41"/>
-      <c r="N36" s="41"/>
-      <c r="O36" s="41"/>
-      <c r="P36" s="41"/>
-      <c r="Q36" s="41"/>
-      <c r="R36" s="41"/>
-      <c r="S36" s="41"/>
-      <c r="T36" s="41"/>
-      <c r="U36" s="41"/>
-      <c r="V36" s="41"/>
-      <c r="W36" s="41"/>
-      <c r="X36" s="41"/>
-      <c r="Y36" s="41"/>
-      <c r="Z36" s="41"/>
-    </row>
-    <row r="37" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="48"/>
-      <c r="B37" s="49"/>
-      <c r="C37" s="50"/>
-      <c r="D37" s="48"/>
-      <c r="E37" s="48"/>
-      <c r="F37" s="48"/>
-      <c r="G37" s="51"/>
-      <c r="H37" s="49"/>
-      <c r="I37" s="41"/>
-      <c r="J37" s="41"/>
-      <c r="K37" s="41"/>
-      <c r="L37" s="41"/>
-      <c r="M37" s="41"/>
-      <c r="N37" s="41"/>
-      <c r="O37" s="41"/>
-      <c r="P37" s="41"/>
-      <c r="Q37" s="41"/>
-      <c r="R37" s="41"/>
-      <c r="S37" s="41"/>
-      <c r="T37" s="41"/>
-      <c r="U37" s="41"/>
-      <c r="V37" s="41"/>
-      <c r="W37" s="41"/>
-      <c r="X37" s="41"/>
-      <c r="Y37" s="41"/>
-      <c r="Z37" s="41"/>
-    </row>
-    <row r="38" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="48"/>
-      <c r="B38" s="49"/>
-      <c r="C38" s="50"/>
-      <c r="D38" s="48"/>
-      <c r="E38" s="48"/>
-      <c r="F38" s="48"/>
-      <c r="G38" s="51"/>
-      <c r="H38" s="49"/>
-      <c r="I38" s="41"/>
-      <c r="J38" s="41"/>
-      <c r="K38" s="41"/>
-      <c r="L38" s="41"/>
-      <c r="M38" s="41"/>
-      <c r="N38" s="41"/>
-      <c r="O38" s="41"/>
-      <c r="P38" s="41"/>
-      <c r="Q38" s="41"/>
-      <c r="R38" s="41"/>
-      <c r="S38" s="41"/>
-      <c r="T38" s="41"/>
-      <c r="U38" s="41"/>
-      <c r="V38" s="41"/>
-      <c r="W38" s="41"/>
-      <c r="X38" s="41"/>
-      <c r="Y38" s="41"/>
-      <c r="Z38" s="41"/>
-    </row>
-    <row r="39" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="52"/>
-      <c r="B39" s="53"/>
-      <c r="C39" s="26"/>
-      <c r="D39" s="52"/>
-      <c r="E39" s="52"/>
-      <c r="F39" s="52"/>
-      <c r="G39" s="27"/>
-      <c r="H39" s="53"/>
-      <c r="I39" s="28"/>
-      <c r="J39" s="28"/>
-      <c r="K39" s="28"/>
-      <c r="L39" s="28"/>
-      <c r="M39" s="28"/>
-      <c r="N39" s="28"/>
-      <c r="O39" s="28"/>
-      <c r="P39" s="28"/>
-      <c r="Q39" s="28"/>
-      <c r="R39" s="28"/>
-      <c r="S39" s="28"/>
-      <c r="T39" s="28"/>
-      <c r="U39" s="28"/>
-      <c r="V39" s="28"/>
-      <c r="W39" s="28"/>
-      <c r="X39" s="28"/>
-      <c r="Y39" s="28"/>
-      <c r="Z39" s="28"/>
-    </row>
-    <row r="40" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="26"/>
-      <c r="B40" s="25"/>
-      <c r="C40" s="26"/>
-      <c r="D40" s="26"/>
-      <c r="E40" s="26"/>
-      <c r="F40" s="26"/>
-      <c r="G40" s="27"/>
-      <c r="H40" s="25"/>
-      <c r="I40" s="28"/>
-      <c r="J40" s="28"/>
-      <c r="K40" s="28"/>
-      <c r="L40" s="28"/>
-      <c r="M40" s="28"/>
-      <c r="N40" s="28"/>
-      <c r="O40" s="28"/>
-      <c r="P40" s="28"/>
-      <c r="Q40" s="28"/>
-      <c r="R40" s="28"/>
-      <c r="S40" s="28"/>
-      <c r="T40" s="28"/>
-      <c r="U40" s="28"/>
-      <c r="V40" s="28"/>
-      <c r="W40" s="28"/>
-      <c r="X40" s="28"/>
-      <c r="Y40" s="28"/>
-      <c r="Z40" s="28"/>
-    </row>
-    <row r="41" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="52"/>
-      <c r="B41" s="53"/>
-      <c r="C41" s="26"/>
-      <c r="D41" s="52"/>
-      <c r="E41" s="52"/>
-      <c r="F41" s="52"/>
-      <c r="G41" s="27"/>
-      <c r="H41" s="53"/>
-      <c r="I41" s="28"/>
-      <c r="J41" s="28"/>
-      <c r="K41" s="28"/>
-      <c r="L41" s="28"/>
-      <c r="M41" s="28"/>
-      <c r="N41" s="28"/>
-      <c r="O41" s="28"/>
-      <c r="P41" s="28"/>
-      <c r="Q41" s="28"/>
-      <c r="R41" s="28"/>
-      <c r="S41" s="28"/>
-      <c r="T41" s="28"/>
-      <c r="U41" s="28"/>
-      <c r="V41" s="28"/>
-      <c r="W41" s="28"/>
-      <c r="X41" s="28"/>
-      <c r="Y41" s="28"/>
-      <c r="Z41" s="28"/>
-    </row>
-    <row r="42" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="26"/>
-      <c r="B42" s="25"/>
-      <c r="C42" s="26"/>
-      <c r="D42" s="26"/>
-      <c r="E42" s="26"/>
-      <c r="F42" s="26"/>
-      <c r="G42" s="27"/>
-      <c r="H42" s="25"/>
-      <c r="I42" s="28"/>
-      <c r="J42" s="28"/>
-      <c r="K42" s="28"/>
-      <c r="L42" s="28"/>
-      <c r="M42" s="28"/>
-      <c r="N42" s="28"/>
-      <c r="O42" s="28"/>
-      <c r="P42" s="28"/>
-      <c r="Q42" s="28"/>
-      <c r="R42" s="28"/>
-      <c r="S42" s="28"/>
-      <c r="T42" s="28"/>
-      <c r="U42" s="28"/>
-      <c r="V42" s="28"/>
-      <c r="W42" s="28"/>
-      <c r="X42" s="28"/>
-      <c r="Y42" s="28"/>
-      <c r="Z42" s="28"/>
-    </row>
-    <row r="43" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="26"/>
-      <c r="B43" s="25"/>
-      <c r="C43" s="26"/>
-      <c r="D43" s="26"/>
-      <c r="E43" s="26"/>
-      <c r="F43" s="26"/>
-      <c r="G43" s="27"/>
-      <c r="H43" s="25"/>
-      <c r="I43" s="28"/>
-      <c r="J43" s="28"/>
-      <c r="K43" s="28"/>
-      <c r="L43" s="28"/>
-      <c r="M43" s="28"/>
-      <c r="N43" s="28"/>
-      <c r="O43" s="28"/>
-      <c r="P43" s="28"/>
-      <c r="Q43" s="28"/>
-      <c r="R43" s="28"/>
-      <c r="S43" s="28"/>
-      <c r="T43" s="28"/>
-      <c r="U43" s="28"/>
-      <c r="V43" s="28"/>
-      <c r="W43" s="28"/>
-      <c r="X43" s="28"/>
-      <c r="Y43" s="28"/>
-      <c r="Z43" s="28"/>
+      <c r="H41" s="43"/>
+      <c r="I41" s="45"/>
+      <c r="J41" s="39"/>
+      <c r="K41" s="39"/>
+      <c r="L41" s="39"/>
+      <c r="M41" s="39"/>
+      <c r="N41" s="39"/>
+      <c r="O41" s="39"/>
+      <c r="P41" s="39"/>
+      <c r="Q41" s="39"/>
+      <c r="R41" s="39"/>
+      <c r="S41" s="39"/>
+      <c r="T41" s="39"/>
+      <c r="U41" s="39"/>
+      <c r="V41" s="39"/>
+      <c r="W41" s="39"/>
+      <c r="X41" s="39"/>
+      <c r="Y41" s="39"/>
+      <c r="Z41" s="39"/>
+    </row>
+    <row r="42" spans="1:26" ht="27.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="39"/>
+      <c r="B42" s="39"/>
+      <c r="C42" s="39"/>
+      <c r="D42" s="39"/>
+      <c r="E42" s="39"/>
+      <c r="F42" s="39"/>
+      <c r="G42" s="44" t="s">
+        <v>36</v>
+      </c>
+      <c r="H42" s="43"/>
+      <c r="I42" s="45"/>
+      <c r="J42" s="39"/>
+      <c r="K42" s="39"/>
+      <c r="L42" s="39"/>
+      <c r="M42" s="39"/>
+      <c r="N42" s="39"/>
+      <c r="O42" s="39"/>
+      <c r="P42" s="39"/>
+      <c r="Q42" s="39"/>
+      <c r="R42" s="39"/>
+      <c r="S42" s="39"/>
+      <c r="T42" s="39"/>
+      <c r="U42" s="39"/>
+      <c r="V42" s="39"/>
+      <c r="W42" s="39"/>
+      <c r="X42" s="39"/>
+      <c r="Y42" s="39"/>
+      <c r="Z42" s="39"/>
+    </row>
+    <row r="43" spans="1:26" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="39"/>
+      <c r="B43" s="39"/>
+      <c r="C43" s="39"/>
+      <c r="D43" s="39"/>
+      <c r="E43" s="39"/>
+      <c r="F43" s="39"/>
+      <c r="G43" s="40"/>
+      <c r="H43" s="39"/>
+      <c r="I43" s="39"/>
+      <c r="J43" s="39"/>
+      <c r="K43" s="39"/>
+      <c r="L43" s="39"/>
+      <c r="M43" s="39"/>
+      <c r="N43" s="39"/>
+      <c r="O43" s="39"/>
+      <c r="P43" s="39"/>
+      <c r="Q43" s="39"/>
+      <c r="R43" s="39"/>
+      <c r="S43" s="39"/>
+      <c r="T43" s="39"/>
+      <c r="U43" s="39"/>
+      <c r="V43" s="39"/>
+      <c r="W43" s="39"/>
+      <c r="X43" s="39"/>
+      <c r="Y43" s="39"/>
+      <c r="Z43" s="39"/>
     </row>
     <row r="44" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="26"/>
-      <c r="B44" s="25"/>
-      <c r="C44" s="26"/>
-      <c r="D44" s="26"/>
-      <c r="E44" s="26"/>
-      <c r="F44" s="26"/>
-      <c r="G44" s="27"/>
-      <c r="H44" s="25"/>
-      <c r="I44" s="28"/>
-      <c r="J44" s="28"/>
-      <c r="K44" s="28"/>
-      <c r="L44" s="28"/>
-      <c r="M44" s="28"/>
-      <c r="N44" s="28"/>
-      <c r="O44" s="28"/>
-      <c r="P44" s="28"/>
-      <c r="Q44" s="28"/>
-      <c r="R44" s="28"/>
-      <c r="S44" s="28"/>
-      <c r="T44" s="28"/>
-      <c r="U44" s="28"/>
-      <c r="V44" s="28"/>
-      <c r="W44" s="28"/>
-      <c r="X44" s="28"/>
-      <c r="Y44" s="28"/>
-      <c r="Z44" s="28"/>
+      <c r="A44" s="39"/>
+      <c r="B44" s="39"/>
+      <c r="C44" s="39"/>
+      <c r="D44" s="39"/>
+      <c r="E44" s="39"/>
+      <c r="F44" s="39"/>
+      <c r="G44" s="40"/>
+      <c r="H44" s="39"/>
+      <c r="I44" s="39"/>
+      <c r="J44" s="39"/>
+      <c r="K44" s="39"/>
+      <c r="L44" s="39"/>
+      <c r="M44" s="39"/>
+      <c r="N44" s="39"/>
+      <c r="O44" s="39"/>
+      <c r="P44" s="39"/>
+      <c r="Q44" s="39"/>
+      <c r="R44" s="39"/>
+      <c r="S44" s="39"/>
+      <c r="T44" s="39"/>
+      <c r="U44" s="39"/>
+      <c r="V44" s="39"/>
+      <c r="W44" s="39"/>
+      <c r="X44" s="39"/>
+      <c r="Y44" s="39"/>
+      <c r="Z44" s="39"/>
     </row>
     <row r="45" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="26"/>
-      <c r="B45" s="25"/>
-      <c r="C45" s="26"/>
-      <c r="D45" s="26"/>
-      <c r="E45" s="26"/>
-      <c r="F45" s="26"/>
-      <c r="G45" s="27"/>
-      <c r="H45" s="25"/>
-      <c r="I45" s="28"/>
-      <c r="J45" s="28"/>
-      <c r="K45" s="28"/>
-      <c r="L45" s="28"/>
-      <c r="M45" s="28"/>
-      <c r="N45" s="28"/>
-      <c r="O45" s="28"/>
-      <c r="P45" s="28"/>
-      <c r="Q45" s="28"/>
-      <c r="R45" s="28"/>
-      <c r="S45" s="28"/>
-      <c r="T45" s="28"/>
-      <c r="U45" s="28"/>
-      <c r="V45" s="28"/>
-      <c r="W45" s="28"/>
-      <c r="X45" s="28"/>
-      <c r="Y45" s="28"/>
-      <c r="Z45" s="28"/>
+      <c r="A45" s="39"/>
+      <c r="B45" s="39"/>
+      <c r="C45" s="39"/>
+      <c r="D45" s="39"/>
+      <c r="E45" s="39"/>
+      <c r="F45" s="39"/>
+      <c r="G45" s="40"/>
+      <c r="H45" s="39"/>
+      <c r="I45" s="39"/>
+      <c r="J45" s="39"/>
+      <c r="K45" s="39"/>
+      <c r="L45" s="39"/>
+      <c r="M45" s="39"/>
+      <c r="N45" s="39"/>
+      <c r="O45" s="39"/>
+      <c r="P45" s="39"/>
+      <c r="Q45" s="39"/>
+      <c r="R45" s="39"/>
+      <c r="S45" s="39"/>
+      <c r="T45" s="39"/>
+      <c r="U45" s="39"/>
+      <c r="V45" s="39"/>
+      <c r="W45" s="39"/>
+      <c r="X45" s="39"/>
+      <c r="Y45" s="39"/>
+      <c r="Z45" s="39"/>
     </row>
     <row r="46" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="26"/>
-      <c r="B46" s="25"/>
-      <c r="C46" s="26"/>
-      <c r="D46" s="26"/>
-      <c r="E46" s="26"/>
-      <c r="F46" s="26"/>
-      <c r="G46" s="27"/>
-      <c r="H46" s="25"/>
-      <c r="I46" s="28"/>
-      <c r="J46" s="28"/>
-      <c r="K46" s="28"/>
-      <c r="L46" s="28"/>
-      <c r="M46" s="28"/>
-      <c r="N46" s="28"/>
-      <c r="O46" s="28"/>
-      <c r="P46" s="28"/>
-      <c r="Q46" s="28"/>
-      <c r="R46" s="28"/>
-      <c r="S46" s="28"/>
-      <c r="T46" s="28"/>
-      <c r="U46" s="28"/>
-      <c r="V46" s="28"/>
-      <c r="W46" s="28"/>
-      <c r="X46" s="28"/>
-      <c r="Y46" s="28"/>
-      <c r="Z46" s="28"/>
+      <c r="A46" s="39"/>
+      <c r="B46" s="39"/>
+      <c r="C46" s="39"/>
+      <c r="D46" s="39"/>
+      <c r="E46" s="39"/>
+      <c r="F46" s="39"/>
+      <c r="G46" s="40"/>
+      <c r="H46" s="39"/>
+      <c r="I46" s="39"/>
+      <c r="J46" s="39"/>
+      <c r="K46" s="39"/>
+      <c r="L46" s="39"/>
+      <c r="M46" s="39"/>
+      <c r="N46" s="39"/>
+      <c r="O46" s="39"/>
+      <c r="P46" s="39"/>
+      <c r="Q46" s="39"/>
+      <c r="R46" s="39"/>
+      <c r="S46" s="39"/>
+      <c r="T46" s="39"/>
+      <c r="U46" s="39"/>
+      <c r="V46" s="39"/>
+      <c r="W46" s="39"/>
+      <c r="X46" s="39"/>
+      <c r="Y46" s="39"/>
+      <c r="Z46" s="39"/>
     </row>
     <row r="47" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="26"/>
-      <c r="B47" s="25"/>
-      <c r="C47" s="26"/>
-      <c r="D47" s="26"/>
-      <c r="E47" s="26"/>
-      <c r="F47" s="26"/>
-      <c r="G47" s="27"/>
-      <c r="H47" s="25"/>
-      <c r="I47" s="28"/>
-      <c r="J47" s="28"/>
-      <c r="K47" s="28"/>
-      <c r="L47" s="28"/>
-      <c r="M47" s="28"/>
-      <c r="N47" s="28"/>
-      <c r="O47" s="28"/>
-      <c r="P47" s="28"/>
-      <c r="Q47" s="28"/>
-      <c r="R47" s="28"/>
-      <c r="S47" s="28"/>
-      <c r="T47" s="28"/>
-      <c r="U47" s="28"/>
-      <c r="V47" s="28"/>
-      <c r="W47" s="28"/>
-      <c r="X47" s="28"/>
-      <c r="Y47" s="28"/>
-      <c r="Z47" s="28"/>
+      <c r="A47" s="39"/>
+      <c r="B47" s="39"/>
+      <c r="C47" s="39"/>
+      <c r="D47" s="39"/>
+      <c r="E47" s="39"/>
+      <c r="F47" s="39"/>
+      <c r="G47" s="40"/>
+      <c r="H47" s="39"/>
+      <c r="I47" s="39"/>
+      <c r="J47" s="39"/>
+      <c r="K47" s="39"/>
+      <c r="L47" s="39"/>
+      <c r="M47" s="39"/>
+      <c r="N47" s="39"/>
+      <c r="O47" s="39"/>
+      <c r="P47" s="39"/>
+      <c r="Q47" s="39"/>
+      <c r="R47" s="39"/>
+      <c r="S47" s="39"/>
+      <c r="T47" s="39"/>
+      <c r="U47" s="39"/>
+      <c r="V47" s="39"/>
+      <c r="W47" s="39"/>
+      <c r="X47" s="39"/>
+      <c r="Y47" s="39"/>
+      <c r="Z47" s="39"/>
     </row>
     <row r="48" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="26"/>
-      <c r="B48" s="25"/>
-      <c r="C48" s="26"/>
-      <c r="D48" s="26"/>
-      <c r="E48" s="26"/>
-      <c r="F48" s="26"/>
-      <c r="G48" s="27"/>
-      <c r="H48" s="25"/>
-      <c r="I48" s="28"/>
-      <c r="J48" s="28"/>
-      <c r="K48" s="28"/>
-      <c r="L48" s="28"/>
-      <c r="M48" s="28"/>
-      <c r="N48" s="28"/>
-      <c r="O48" s="28"/>
-      <c r="P48" s="28"/>
-      <c r="Q48" s="28"/>
-      <c r="R48" s="28"/>
-      <c r="S48" s="28"/>
-      <c r="T48" s="28"/>
-      <c r="U48" s="28"/>
-      <c r="V48" s="28"/>
-      <c r="W48" s="28"/>
-      <c r="X48" s="28"/>
-      <c r="Y48" s="28"/>
-      <c r="Z48" s="28"/>
+      <c r="A48" s="39"/>
+      <c r="B48" s="39"/>
+      <c r="C48" s="39"/>
+      <c r="D48" s="39"/>
+      <c r="E48" s="39"/>
+      <c r="F48" s="39"/>
+      <c r="G48" s="40"/>
+      <c r="H48" s="39"/>
+      <c r="I48" s="39"/>
+      <c r="J48" s="39"/>
+      <c r="K48" s="39"/>
+      <c r="L48" s="39"/>
+      <c r="M48" s="39"/>
+      <c r="N48" s="39"/>
+      <c r="O48" s="39"/>
+      <c r="P48" s="39"/>
+      <c r="Q48" s="39"/>
+      <c r="R48" s="39"/>
+      <c r="S48" s="39"/>
+      <c r="T48" s="39"/>
+      <c r="U48" s="39"/>
+      <c r="V48" s="39"/>
+      <c r="W48" s="39"/>
+      <c r="X48" s="39"/>
+      <c r="Y48" s="39"/>
+      <c r="Z48" s="39"/>
     </row>
     <row r="49" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="26"/>
-      <c r="B49" s="25"/>
-      <c r="C49" s="26"/>
-      <c r="D49" s="26"/>
-      <c r="E49" s="26"/>
-      <c r="F49" s="26"/>
-      <c r="G49" s="27"/>
-      <c r="H49" s="25"/>
-      <c r="I49" s="28"/>
-      <c r="J49" s="28"/>
-      <c r="K49" s="28"/>
-      <c r="L49" s="28"/>
-      <c r="M49" s="28"/>
-      <c r="N49" s="28"/>
-      <c r="O49" s="28"/>
-      <c r="P49" s="28"/>
-      <c r="Q49" s="28"/>
-      <c r="R49" s="28"/>
-      <c r="S49" s="28"/>
-      <c r="T49" s="28"/>
-      <c r="U49" s="28"/>
-      <c r="V49" s="28"/>
-      <c r="W49" s="28"/>
-      <c r="X49" s="28"/>
-      <c r="Y49" s="28"/>
-      <c r="Z49" s="28"/>
+      <c r="A49" s="46"/>
+      <c r="B49" s="47"/>
+      <c r="C49" s="48"/>
+      <c r="D49" s="46"/>
+      <c r="E49" s="46"/>
+      <c r="F49" s="46"/>
+      <c r="G49" s="49"/>
+      <c r="H49" s="47"/>
+      <c r="I49" s="39"/>
+      <c r="J49" s="39"/>
+      <c r="K49" s="39"/>
+      <c r="L49" s="39"/>
+      <c r="M49" s="39"/>
+      <c r="N49" s="39"/>
+      <c r="O49" s="39"/>
+      <c r="P49" s="39"/>
+      <c r="Q49" s="39"/>
+      <c r="R49" s="39"/>
+      <c r="S49" s="39"/>
+      <c r="T49" s="39"/>
+      <c r="U49" s="39"/>
+      <c r="V49" s="39"/>
+      <c r="W49" s="39"/>
+      <c r="X49" s="39"/>
+      <c r="Y49" s="39"/>
+      <c r="Z49" s="39"/>
     </row>
     <row r="50" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="26"/>
-      <c r="B50" s="25"/>
-      <c r="C50" s="26"/>
-      <c r="D50" s="26"/>
-      <c r="E50" s="26"/>
-      <c r="F50" s="26"/>
-      <c r="G50" s="27"/>
-      <c r="H50" s="25"/>
-      <c r="I50" s="28"/>
-      <c r="J50" s="28"/>
-      <c r="K50" s="28"/>
-      <c r="L50" s="28"/>
-      <c r="M50" s="28"/>
-      <c r="N50" s="28"/>
-      <c r="O50" s="28"/>
-      <c r="P50" s="28"/>
-      <c r="Q50" s="28"/>
-      <c r="R50" s="28"/>
-      <c r="S50" s="28"/>
-      <c r="T50" s="28"/>
-      <c r="U50" s="28"/>
-      <c r="V50" s="28"/>
-      <c r="W50" s="28"/>
-      <c r="X50" s="28"/>
-      <c r="Y50" s="28"/>
-      <c r="Z50" s="28"/>
+      <c r="A50" s="46"/>
+      <c r="B50" s="47"/>
+      <c r="C50" s="48"/>
+      <c r="D50" s="46"/>
+      <c r="E50" s="46"/>
+      <c r="F50" s="46"/>
+      <c r="G50" s="49"/>
+      <c r="H50" s="47"/>
+      <c r="I50" s="39"/>
+      <c r="J50" s="39"/>
+      <c r="K50" s="39"/>
+      <c r="L50" s="39"/>
+      <c r="M50" s="39"/>
+      <c r="N50" s="39"/>
+      <c r="O50" s="39"/>
+      <c r="P50" s="39"/>
+      <c r="Q50" s="39"/>
+      <c r="R50" s="39"/>
+      <c r="S50" s="39"/>
+      <c r="T50" s="39"/>
+      <c r="U50" s="39"/>
+      <c r="V50" s="39"/>
+      <c r="W50" s="39"/>
+      <c r="X50" s="39"/>
+      <c r="Y50" s="39"/>
+      <c r="Z50" s="39"/>
     </row>
     <row r="51" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="26"/>
-      <c r="B51" s="25"/>
-      <c r="C51" s="26"/>
-      <c r="D51" s="26"/>
-      <c r="E51" s="26"/>
-      <c r="F51" s="26"/>
-      <c r="G51" s="27"/>
-      <c r="H51" s="25"/>
-      <c r="I51" s="28"/>
-      <c r="J51" s="28"/>
-      <c r="K51" s="28"/>
-      <c r="L51" s="28"/>
-      <c r="M51" s="28"/>
-      <c r="N51" s="28"/>
-      <c r="O51" s="28"/>
-      <c r="P51" s="28"/>
-      <c r="Q51" s="28"/>
-      <c r="R51" s="28"/>
-      <c r="S51" s="28"/>
-      <c r="T51" s="28"/>
-      <c r="U51" s="28"/>
-      <c r="V51" s="28"/>
-      <c r="W51" s="28"/>
-      <c r="X51" s="28"/>
-      <c r="Y51" s="28"/>
-      <c r="Z51" s="28"/>
+      <c r="A51" s="46"/>
+      <c r="B51" s="47"/>
+      <c r="C51" s="48"/>
+      <c r="D51" s="46"/>
+      <c r="E51" s="46"/>
+      <c r="F51" s="46"/>
+      <c r="G51" s="49"/>
+      <c r="H51" s="47"/>
+      <c r="I51" s="39"/>
+      <c r="J51" s="39"/>
+      <c r="K51" s="39"/>
+      <c r="L51" s="39"/>
+      <c r="M51" s="39"/>
+      <c r="N51" s="39"/>
+      <c r="O51" s="39"/>
+      <c r="P51" s="39"/>
+      <c r="Q51" s="39"/>
+      <c r="R51" s="39"/>
+      <c r="S51" s="39"/>
+      <c r="T51" s="39"/>
+      <c r="U51" s="39"/>
+      <c r="V51" s="39"/>
+      <c r="W51" s="39"/>
+      <c r="X51" s="39"/>
+      <c r="Y51" s="39"/>
+      <c r="Z51" s="39"/>
     </row>
     <row r="52" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="26"/>
-      <c r="B52" s="25"/>
-      <c r="C52" s="26"/>
-      <c r="D52" s="26"/>
-      <c r="E52" s="26"/>
-      <c r="F52" s="26"/>
-      <c r="G52" s="27"/>
-      <c r="H52" s="25"/>
-      <c r="I52" s="28"/>
-      <c r="J52" s="28"/>
-      <c r="K52" s="28"/>
-      <c r="L52" s="28"/>
-      <c r="M52" s="28"/>
-      <c r="N52" s="28"/>
-      <c r="O52" s="28"/>
-      <c r="P52" s="28"/>
-      <c r="Q52" s="28"/>
-      <c r="R52" s="28"/>
-      <c r="S52" s="28"/>
-      <c r="T52" s="28"/>
-      <c r="U52" s="28"/>
-      <c r="V52" s="28"/>
-      <c r="W52" s="28"/>
-      <c r="X52" s="28"/>
-      <c r="Y52" s="28"/>
-      <c r="Z52" s="28"/>
+      <c r="A52" s="46"/>
+      <c r="B52" s="47"/>
+      <c r="C52" s="48"/>
+      <c r="D52" s="46"/>
+      <c r="E52" s="46"/>
+      <c r="F52" s="46"/>
+      <c r="G52" s="49"/>
+      <c r="H52" s="47"/>
+      <c r="I52" s="39"/>
+      <c r="J52" s="39"/>
+      <c r="K52" s="39"/>
+      <c r="L52" s="39"/>
+      <c r="M52" s="39"/>
+      <c r="N52" s="39"/>
+      <c r="O52" s="39"/>
+      <c r="P52" s="39"/>
+      <c r="Q52" s="39"/>
+      <c r="R52" s="39"/>
+      <c r="S52" s="39"/>
+      <c r="T52" s="39"/>
+      <c r="U52" s="39"/>
+      <c r="V52" s="39"/>
+      <c r="W52" s="39"/>
+      <c r="X52" s="39"/>
+      <c r="Y52" s="39"/>
+      <c r="Z52" s="39"/>
     </row>
     <row r="53" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="26"/>
-      <c r="B53" s="25"/>
-      <c r="C53" s="26"/>
-      <c r="D53" s="26"/>
-      <c r="E53" s="26"/>
-      <c r="F53" s="26"/>
-      <c r="G53" s="27"/>
-      <c r="H53" s="25"/>
-      <c r="I53" s="28"/>
-      <c r="J53" s="28"/>
-      <c r="K53" s="28"/>
-      <c r="L53" s="28"/>
-      <c r="M53" s="28"/>
-      <c r="N53" s="28"/>
-      <c r="O53" s="28"/>
-      <c r="P53" s="28"/>
-      <c r="Q53" s="28"/>
-      <c r="R53" s="28"/>
-      <c r="S53" s="28"/>
-      <c r="T53" s="28"/>
-      <c r="U53" s="28"/>
-      <c r="V53" s="28"/>
-      <c r="W53" s="28"/>
-      <c r="X53" s="28"/>
-      <c r="Y53" s="28"/>
-      <c r="Z53" s="28"/>
+      <c r="A53" s="46"/>
+      <c r="B53" s="47"/>
+      <c r="C53" s="48"/>
+      <c r="D53" s="46"/>
+      <c r="E53" s="46"/>
+      <c r="F53" s="46"/>
+      <c r="G53" s="49"/>
+      <c r="H53" s="47"/>
+      <c r="I53" s="39"/>
+      <c r="J53" s="39"/>
+      <c r="K53" s="39"/>
+      <c r="L53" s="39"/>
+      <c r="M53" s="39"/>
+      <c r="N53" s="39"/>
+      <c r="O53" s="39"/>
+      <c r="P53" s="39"/>
+      <c r="Q53" s="39"/>
+      <c r="R53" s="39"/>
+      <c r="S53" s="39"/>
+      <c r="T53" s="39"/>
+      <c r="U53" s="39"/>
+      <c r="V53" s="39"/>
+      <c r="W53" s="39"/>
+      <c r="X53" s="39"/>
+      <c r="Y53" s="39"/>
+      <c r="Z53" s="39"/>
     </row>
     <row r="54" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="26"/>
-      <c r="B54" s="25"/>
-      <c r="C54" s="26"/>
-      <c r="D54" s="26"/>
-      <c r="E54" s="26"/>
-      <c r="F54" s="26"/>
-      <c r="G54" s="27"/>
-      <c r="H54" s="25"/>
-      <c r="I54" s="28"/>
-      <c r="J54" s="28"/>
-      <c r="K54" s="28"/>
-      <c r="L54" s="28"/>
-      <c r="M54" s="28"/>
-      <c r="N54" s="28"/>
-      <c r="O54" s="28"/>
-      <c r="P54" s="28"/>
-      <c r="Q54" s="28"/>
-      <c r="R54" s="28"/>
-      <c r="S54" s="28"/>
-      <c r="T54" s="28"/>
-      <c r="U54" s="28"/>
-      <c r="V54" s="28"/>
-      <c r="W54" s="28"/>
-      <c r="X54" s="28"/>
-      <c r="Y54" s="28"/>
-      <c r="Z54" s="28"/>
+      <c r="A54" s="46"/>
+      <c r="B54" s="47"/>
+      <c r="C54" s="48"/>
+      <c r="D54" s="46"/>
+      <c r="E54" s="46"/>
+      <c r="F54" s="46"/>
+      <c r="G54" s="49"/>
+      <c r="H54" s="47"/>
+      <c r="I54" s="39"/>
+      <c r="J54" s="39"/>
+      <c r="K54" s="39"/>
+      <c r="L54" s="39"/>
+      <c r="M54" s="39"/>
+      <c r="N54" s="39"/>
+      <c r="O54" s="39"/>
+      <c r="P54" s="39"/>
+      <c r="Q54" s="39"/>
+      <c r="R54" s="39"/>
+      <c r="S54" s="39"/>
+      <c r="T54" s="39"/>
+      <c r="U54" s="39"/>
+      <c r="V54" s="39"/>
+      <c r="W54" s="39"/>
+      <c r="X54" s="39"/>
+      <c r="Y54" s="39"/>
+      <c r="Z54" s="39"/>
     </row>
     <row r="55" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="26"/>
-      <c r="B55" s="25"/>
-      <c r="C55" s="26"/>
-      <c r="D55" s="26"/>
-      <c r="E55" s="26"/>
-      <c r="F55" s="26"/>
-      <c r="G55" s="27"/>
-      <c r="H55" s="25"/>
-      <c r="I55" s="28"/>
-      <c r="J55" s="28"/>
-      <c r="K55" s="28"/>
-      <c r="L55" s="28"/>
-      <c r="M55" s="28"/>
-      <c r="N55" s="28"/>
-      <c r="O55" s="28"/>
-      <c r="P55" s="28"/>
-      <c r="Q55" s="28"/>
-      <c r="R55" s="28"/>
-      <c r="S55" s="28"/>
-      <c r="T55" s="28"/>
-      <c r="U55" s="28"/>
-      <c r="V55" s="28"/>
-      <c r="W55" s="28"/>
-      <c r="X55" s="28"/>
-      <c r="Y55" s="28"/>
-      <c r="Z55" s="28"/>
+      <c r="A55" s="46"/>
+      <c r="B55" s="47"/>
+      <c r="C55" s="48"/>
+      <c r="D55" s="46"/>
+      <c r="E55" s="46"/>
+      <c r="F55" s="46"/>
+      <c r="G55" s="49"/>
+      <c r="H55" s="47"/>
+      <c r="I55" s="39"/>
+      <c r="J55" s="39"/>
+      <c r="K55" s="39"/>
+      <c r="L55" s="39"/>
+      <c r="M55" s="39"/>
+      <c r="N55" s="39"/>
+      <c r="O55" s="39"/>
+      <c r="P55" s="39"/>
+      <c r="Q55" s="39"/>
+      <c r="R55" s="39"/>
+      <c r="S55" s="39"/>
+      <c r="T55" s="39"/>
+      <c r="U55" s="39"/>
+      <c r="V55" s="39"/>
+      <c r="W55" s="39"/>
+      <c r="X55" s="39"/>
+      <c r="Y55" s="39"/>
+      <c r="Z55" s="39"/>
     </row>
     <row r="56" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="26"/>
-      <c r="B56" s="25"/>
-      <c r="C56" s="26"/>
-      <c r="D56" s="26"/>
-      <c r="E56" s="26"/>
-      <c r="F56" s="26"/>
-      <c r="G56" s="27"/>
-      <c r="H56" s="25"/>
-      <c r="I56" s="28"/>
-      <c r="J56" s="28"/>
-      <c r="K56" s="28"/>
-      <c r="L56" s="28"/>
-      <c r="M56" s="28"/>
-      <c r="N56" s="28"/>
-      <c r="O56" s="28"/>
-      <c r="P56" s="28"/>
-      <c r="Q56" s="28"/>
-      <c r="R56" s="28"/>
-      <c r="S56" s="28"/>
-      <c r="T56" s="28"/>
-      <c r="U56" s="28"/>
-      <c r="V56" s="28"/>
-      <c r="W56" s="28"/>
-      <c r="X56" s="28"/>
-      <c r="Y56" s="28"/>
-      <c r="Z56" s="28"/>
+      <c r="A56" s="46"/>
+      <c r="B56" s="47"/>
+      <c r="C56" s="48"/>
+      <c r="D56" s="46"/>
+      <c r="E56" s="46"/>
+      <c r="F56" s="46"/>
+      <c r="G56" s="49"/>
+      <c r="H56" s="47"/>
+      <c r="I56" s="39"/>
+      <c r="J56" s="39"/>
+      <c r="K56" s="39"/>
+      <c r="L56" s="39"/>
+      <c r="M56" s="39"/>
+      <c r="N56" s="39"/>
+      <c r="O56" s="39"/>
+      <c r="P56" s="39"/>
+      <c r="Q56" s="39"/>
+      <c r="R56" s="39"/>
+      <c r="S56" s="39"/>
+      <c r="T56" s="39"/>
+      <c r="U56" s="39"/>
+      <c r="V56" s="39"/>
+      <c r="W56" s="39"/>
+      <c r="X56" s="39"/>
+      <c r="Y56" s="39"/>
+      <c r="Z56" s="39"/>
     </row>
     <row r="57" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="26"/>
-      <c r="B57" s="25"/>
-      <c r="C57" s="26"/>
-      <c r="D57" s="26"/>
-      <c r="E57" s="26"/>
-      <c r="F57" s="26"/>
-      <c r="G57" s="27"/>
-      <c r="H57" s="25"/>
-      <c r="I57" s="28"/>
-      <c r="J57" s="28"/>
-      <c r="K57" s="28"/>
-      <c r="L57" s="28"/>
-      <c r="M57" s="28"/>
-      <c r="N57" s="28"/>
-      <c r="O57" s="28"/>
-      <c r="P57" s="28"/>
-      <c r="Q57" s="28"/>
-      <c r="R57" s="28"/>
-      <c r="S57" s="28"/>
-      <c r="T57" s="28"/>
-      <c r="U57" s="28"/>
-      <c r="V57" s="28"/>
-      <c r="W57" s="28"/>
-      <c r="X57" s="28"/>
-      <c r="Y57" s="28"/>
-      <c r="Z57" s="28"/>
+      <c r="A57" s="46"/>
+      <c r="B57" s="47"/>
+      <c r="C57" s="48"/>
+      <c r="D57" s="46"/>
+      <c r="E57" s="46"/>
+      <c r="F57" s="46"/>
+      <c r="G57" s="49"/>
+      <c r="H57" s="47"/>
+      <c r="I57" s="39"/>
+      <c r="J57" s="39"/>
+      <c r="K57" s="39"/>
+      <c r="L57" s="39"/>
+      <c r="M57" s="39"/>
+      <c r="N57" s="39"/>
+      <c r="O57" s="39"/>
+      <c r="P57" s="39"/>
+      <c r="Q57" s="39"/>
+      <c r="R57" s="39"/>
+      <c r="S57" s="39"/>
+      <c r="T57" s="39"/>
+      <c r="U57" s="39"/>
+      <c r="V57" s="39"/>
+      <c r="W57" s="39"/>
+      <c r="X57" s="39"/>
+      <c r="Y57" s="39"/>
+      <c r="Z57" s="39"/>
     </row>
     <row r="58" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="26"/>
-      <c r="B58" s="25"/>
+      <c r="A58" s="50"/>
+      <c r="B58" s="51"/>
       <c r="C58" s="26"/>
-      <c r="D58" s="26"/>
-      <c r="E58" s="26"/>
-      <c r="F58" s="26"/>
+      <c r="D58" s="50"/>
+      <c r="E58" s="50"/>
+      <c r="F58" s="50"/>
       <c r="G58" s="27"/>
-      <c r="H58" s="25"/>
+      <c r="H58" s="51"/>
       <c r="I58" s="28"/>
       <c r="J58" s="28"/>
       <c r="K58" s="28"/>
@@ -8635,14 +9480,14 @@
       <c r="Z59" s="28"/>
     </row>
     <row r="60" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="26"/>
-      <c r="B60" s="25"/>
+      <c r="A60" s="50"/>
+      <c r="B60" s="51"/>
       <c r="C60" s="26"/>
-      <c r="D60" s="26"/>
-      <c r="E60" s="26"/>
-      <c r="F60" s="26"/>
+      <c r="D60" s="50"/>
+      <c r="E60" s="50"/>
+      <c r="F60" s="50"/>
       <c r="G60" s="27"/>
-      <c r="H60" s="25"/>
+      <c r="H60" s="51"/>
       <c r="I60" s="28"/>
       <c r="J60" s="28"/>
       <c r="K60" s="28"/>
@@ -34534,183 +35379,975 @@
       <c r="Y984" s="28"/>
       <c r="Z984" s="28"/>
     </row>
+    <row r="985" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A985" s="26"/>
+      <c r="B985" s="25"/>
+      <c r="C985" s="26"/>
+      <c r="D985" s="26"/>
+      <c r="E985" s="26"/>
+      <c r="F985" s="26"/>
+      <c r="G985" s="27"/>
+      <c r="H985" s="25"/>
+      <c r="I985" s="28"/>
+      <c r="J985" s="28"/>
+      <c r="K985" s="28"/>
+      <c r="L985" s="28"/>
+      <c r="M985" s="28"/>
+      <c r="N985" s="28"/>
+      <c r="O985" s="28"/>
+      <c r="P985" s="28"/>
+      <c r="Q985" s="28"/>
+      <c r="R985" s="28"/>
+      <c r="S985" s="28"/>
+      <c r="T985" s="28"/>
+      <c r="U985" s="28"/>
+      <c r="V985" s="28"/>
+      <c r="W985" s="28"/>
+      <c r="X985" s="28"/>
+      <c r="Y985" s="28"/>
+      <c r="Z985" s="28"/>
+    </row>
+    <row r="986" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A986" s="26"/>
+      <c r="B986" s="25"/>
+      <c r="C986" s="26"/>
+      <c r="D986" s="26"/>
+      <c r="E986" s="26"/>
+      <c r="F986" s="26"/>
+      <c r="G986" s="27"/>
+      <c r="H986" s="25"/>
+      <c r="I986" s="28"/>
+      <c r="J986" s="28"/>
+      <c r="K986" s="28"/>
+      <c r="L986" s="28"/>
+      <c r="M986" s="28"/>
+      <c r="N986" s="28"/>
+      <c r="O986" s="28"/>
+      <c r="P986" s="28"/>
+      <c r="Q986" s="28"/>
+      <c r="R986" s="28"/>
+      <c r="S986" s="28"/>
+      <c r="T986" s="28"/>
+      <c r="U986" s="28"/>
+      <c r="V986" s="28"/>
+      <c r="W986" s="28"/>
+      <c r="X986" s="28"/>
+      <c r="Y986" s="28"/>
+      <c r="Z986" s="28"/>
+    </row>
+    <row r="987" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A987" s="26"/>
+      <c r="B987" s="25"/>
+      <c r="C987" s="26"/>
+      <c r="D987" s="26"/>
+      <c r="E987" s="26"/>
+      <c r="F987" s="26"/>
+      <c r="G987" s="27"/>
+      <c r="H987" s="25"/>
+      <c r="I987" s="28"/>
+      <c r="J987" s="28"/>
+      <c r="K987" s="28"/>
+      <c r="L987" s="28"/>
+      <c r="M987" s="28"/>
+      <c r="N987" s="28"/>
+      <c r="O987" s="28"/>
+      <c r="P987" s="28"/>
+      <c r="Q987" s="28"/>
+      <c r="R987" s="28"/>
+      <c r="S987" s="28"/>
+      <c r="T987" s="28"/>
+      <c r="U987" s="28"/>
+      <c r="V987" s="28"/>
+      <c r="W987" s="28"/>
+      <c r="X987" s="28"/>
+      <c r="Y987" s="28"/>
+      <c r="Z987" s="28"/>
+    </row>
+    <row r="988" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A988" s="26"/>
+      <c r="B988" s="25"/>
+      <c r="C988" s="26"/>
+      <c r="D988" s="26"/>
+      <c r="E988" s="26"/>
+      <c r="F988" s="26"/>
+      <c r="G988" s="27"/>
+      <c r="H988" s="25"/>
+      <c r="I988" s="28"/>
+      <c r="J988" s="28"/>
+      <c r="K988" s="28"/>
+      <c r="L988" s="28"/>
+      <c r="M988" s="28"/>
+      <c r="N988" s="28"/>
+      <c r="O988" s="28"/>
+      <c r="P988" s="28"/>
+      <c r="Q988" s="28"/>
+      <c r="R988" s="28"/>
+      <c r="S988" s="28"/>
+      <c r="T988" s="28"/>
+      <c r="U988" s="28"/>
+      <c r="V988" s="28"/>
+      <c r="W988" s="28"/>
+      <c r="X988" s="28"/>
+      <c r="Y988" s="28"/>
+      <c r="Z988" s="28"/>
+    </row>
+    <row r="989" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A989" s="26"/>
+      <c r="B989" s="25"/>
+      <c r="C989" s="26"/>
+      <c r="D989" s="26"/>
+      <c r="E989" s="26"/>
+      <c r="F989" s="26"/>
+      <c r="G989" s="27"/>
+      <c r="H989" s="25"/>
+      <c r="I989" s="28"/>
+      <c r="J989" s="28"/>
+      <c r="K989" s="28"/>
+      <c r="L989" s="28"/>
+      <c r="M989" s="28"/>
+      <c r="N989" s="28"/>
+      <c r="O989" s="28"/>
+      <c r="P989" s="28"/>
+      <c r="Q989" s="28"/>
+      <c r="R989" s="28"/>
+      <c r="S989" s="28"/>
+      <c r="T989" s="28"/>
+      <c r="U989" s="28"/>
+      <c r="V989" s="28"/>
+      <c r="W989" s="28"/>
+      <c r="X989" s="28"/>
+      <c r="Y989" s="28"/>
+      <c r="Z989" s="28"/>
+    </row>
+    <row r="990" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A990" s="26"/>
+      <c r="B990" s="25"/>
+      <c r="C990" s="26"/>
+      <c r="D990" s="26"/>
+      <c r="E990" s="26"/>
+      <c r="F990" s="26"/>
+      <c r="G990" s="27"/>
+      <c r="H990" s="25"/>
+      <c r="I990" s="28"/>
+      <c r="J990" s="28"/>
+      <c r="K990" s="28"/>
+      <c r="L990" s="28"/>
+      <c r="M990" s="28"/>
+      <c r="N990" s="28"/>
+      <c r="O990" s="28"/>
+      <c r="P990" s="28"/>
+      <c r="Q990" s="28"/>
+      <c r="R990" s="28"/>
+      <c r="S990" s="28"/>
+      <c r="T990" s="28"/>
+      <c r="U990" s="28"/>
+      <c r="V990" s="28"/>
+      <c r="W990" s="28"/>
+      <c r="X990" s="28"/>
+      <c r="Y990" s="28"/>
+      <c r="Z990" s="28"/>
+    </row>
+    <row r="991" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A991" s="26"/>
+      <c r="B991" s="25"/>
+      <c r="C991" s="26"/>
+      <c r="D991" s="26"/>
+      <c r="E991" s="26"/>
+      <c r="F991" s="26"/>
+      <c r="G991" s="27"/>
+      <c r="H991" s="25"/>
+      <c r="I991" s="28"/>
+      <c r="J991" s="28"/>
+      <c r="K991" s="28"/>
+      <c r="L991" s="28"/>
+      <c r="M991" s="28"/>
+      <c r="N991" s="28"/>
+      <c r="O991" s="28"/>
+      <c r="P991" s="28"/>
+      <c r="Q991" s="28"/>
+      <c r="R991" s="28"/>
+      <c r="S991" s="28"/>
+      <c r="T991" s="28"/>
+      <c r="U991" s="28"/>
+      <c r="V991" s="28"/>
+      <c r="W991" s="28"/>
+      <c r="X991" s="28"/>
+      <c r="Y991" s="28"/>
+      <c r="Z991" s="28"/>
+    </row>
+    <row r="992" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A992" s="26"/>
+      <c r="B992" s="25"/>
+      <c r="C992" s="26"/>
+      <c r="D992" s="26"/>
+      <c r="E992" s="26"/>
+      <c r="F992" s="26"/>
+      <c r="G992" s="27"/>
+      <c r="H992" s="25"/>
+      <c r="I992" s="28"/>
+      <c r="J992" s="28"/>
+      <c r="K992" s="28"/>
+      <c r="L992" s="28"/>
+      <c r="M992" s="28"/>
+      <c r="N992" s="28"/>
+      <c r="O992" s="28"/>
+      <c r="P992" s="28"/>
+      <c r="Q992" s="28"/>
+      <c r="R992" s="28"/>
+      <c r="S992" s="28"/>
+      <c r="T992" s="28"/>
+      <c r="U992" s="28"/>
+      <c r="V992" s="28"/>
+      <c r="W992" s="28"/>
+      <c r="X992" s="28"/>
+      <c r="Y992" s="28"/>
+      <c r="Z992" s="28"/>
+    </row>
+    <row r="993" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A993" s="26"/>
+      <c r="B993" s="25"/>
+      <c r="C993" s="26"/>
+      <c r="D993" s="26"/>
+      <c r="E993" s="26"/>
+      <c r="F993" s="26"/>
+      <c r="G993" s="27"/>
+      <c r="H993" s="25"/>
+      <c r="I993" s="28"/>
+      <c r="J993" s="28"/>
+      <c r="K993" s="28"/>
+      <c r="L993" s="28"/>
+      <c r="M993" s="28"/>
+      <c r="N993" s="28"/>
+      <c r="O993" s="28"/>
+      <c r="P993" s="28"/>
+      <c r="Q993" s="28"/>
+      <c r="R993" s="28"/>
+      <c r="S993" s="28"/>
+      <c r="T993" s="28"/>
+      <c r="U993" s="28"/>
+      <c r="V993" s="28"/>
+      <c r="W993" s="28"/>
+      <c r="X993" s="28"/>
+      <c r="Y993" s="28"/>
+      <c r="Z993" s="28"/>
+    </row>
+    <row r="994" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A994" s="26"/>
+      <c r="B994" s="25"/>
+      <c r="C994" s="26"/>
+      <c r="D994" s="26"/>
+      <c r="E994" s="26"/>
+      <c r="F994" s="26"/>
+      <c r="G994" s="27"/>
+      <c r="H994" s="25"/>
+      <c r="I994" s="28"/>
+      <c r="J994" s="28"/>
+      <c r="K994" s="28"/>
+      <c r="L994" s="28"/>
+      <c r="M994" s="28"/>
+      <c r="N994" s="28"/>
+      <c r="O994" s="28"/>
+      <c r="P994" s="28"/>
+      <c r="Q994" s="28"/>
+      <c r="R994" s="28"/>
+      <c r="S994" s="28"/>
+      <c r="T994" s="28"/>
+      <c r="U994" s="28"/>
+      <c r="V994" s="28"/>
+      <c r="W994" s="28"/>
+      <c r="X994" s="28"/>
+      <c r="Y994" s="28"/>
+      <c r="Z994" s="28"/>
+    </row>
+    <row r="995" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A995" s="26"/>
+      <c r="B995" s="25"/>
+      <c r="C995" s="26"/>
+      <c r="D995" s="26"/>
+      <c r="E995" s="26"/>
+      <c r="F995" s="26"/>
+      <c r="G995" s="27"/>
+      <c r="H995" s="25"/>
+      <c r="I995" s="28"/>
+      <c r="J995" s="28"/>
+      <c r="K995" s="28"/>
+      <c r="L995" s="28"/>
+      <c r="M995" s="28"/>
+      <c r="N995" s="28"/>
+      <c r="O995" s="28"/>
+      <c r="P995" s="28"/>
+      <c r="Q995" s="28"/>
+      <c r="R995" s="28"/>
+      <c r="S995" s="28"/>
+      <c r="T995" s="28"/>
+      <c r="U995" s="28"/>
+      <c r="V995" s="28"/>
+      <c r="W995" s="28"/>
+      <c r="X995" s="28"/>
+      <c r="Y995" s="28"/>
+      <c r="Z995" s="28"/>
+    </row>
+    <row r="996" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A996" s="26"/>
+      <c r="B996" s="25"/>
+      <c r="C996" s="26"/>
+      <c r="D996" s="26"/>
+      <c r="E996" s="26"/>
+      <c r="F996" s="26"/>
+      <c r="G996" s="27"/>
+      <c r="H996" s="25"/>
+      <c r="I996" s="28"/>
+      <c r="J996" s="28"/>
+      <c r="K996" s="28"/>
+      <c r="L996" s="28"/>
+      <c r="M996" s="28"/>
+      <c r="N996" s="28"/>
+      <c r="O996" s="28"/>
+      <c r="P996" s="28"/>
+      <c r="Q996" s="28"/>
+      <c r="R996" s="28"/>
+      <c r="S996" s="28"/>
+      <c r="T996" s="28"/>
+      <c r="U996" s="28"/>
+      <c r="V996" s="28"/>
+      <c r="W996" s="28"/>
+      <c r="X996" s="28"/>
+      <c r="Y996" s="28"/>
+      <c r="Z996" s="28"/>
+    </row>
+    <row r="997" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A997" s="26"/>
+      <c r="B997" s="25"/>
+      <c r="C997" s="26"/>
+      <c r="D997" s="26"/>
+      <c r="E997" s="26"/>
+      <c r="F997" s="26"/>
+      <c r="G997" s="27"/>
+      <c r="H997" s="25"/>
+      <c r="I997" s="28"/>
+      <c r="J997" s="28"/>
+      <c r="K997" s="28"/>
+      <c r="L997" s="28"/>
+      <c r="M997" s="28"/>
+      <c r="N997" s="28"/>
+      <c r="O997" s="28"/>
+      <c r="P997" s="28"/>
+      <c r="Q997" s="28"/>
+      <c r="R997" s="28"/>
+      <c r="S997" s="28"/>
+      <c r="T997" s="28"/>
+      <c r="U997" s="28"/>
+      <c r="V997" s="28"/>
+      <c r="W997" s="28"/>
+      <c r="X997" s="28"/>
+      <c r="Y997" s="28"/>
+      <c r="Z997" s="28"/>
+    </row>
+    <row r="998" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A998" s="26"/>
+      <c r="B998" s="25"/>
+      <c r="C998" s="26"/>
+      <c r="D998" s="26"/>
+      <c r="E998" s="26"/>
+      <c r="F998" s="26"/>
+      <c r="G998" s="27"/>
+      <c r="H998" s="25"/>
+      <c r="I998" s="28"/>
+      <c r="J998" s="28"/>
+      <c r="K998" s="28"/>
+      <c r="L998" s="28"/>
+      <c r="M998" s="28"/>
+      <c r="N998" s="28"/>
+      <c r="O998" s="28"/>
+      <c r="P998" s="28"/>
+      <c r="Q998" s="28"/>
+      <c r="R998" s="28"/>
+      <c r="S998" s="28"/>
+      <c r="T998" s="28"/>
+      <c r="U998" s="28"/>
+      <c r="V998" s="28"/>
+      <c r="W998" s="28"/>
+      <c r="X998" s="28"/>
+      <c r="Y998" s="28"/>
+      <c r="Z998" s="28"/>
+    </row>
+    <row r="999" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A999" s="26"/>
+      <c r="B999" s="25"/>
+      <c r="C999" s="26"/>
+      <c r="D999" s="26"/>
+      <c r="E999" s="26"/>
+      <c r="F999" s="26"/>
+      <c r="G999" s="27"/>
+      <c r="H999" s="25"/>
+      <c r="I999" s="28"/>
+      <c r="J999" s="28"/>
+      <c r="K999" s="28"/>
+      <c r="L999" s="28"/>
+      <c r="M999" s="28"/>
+      <c r="N999" s="28"/>
+      <c r="O999" s="28"/>
+      <c r="P999" s="28"/>
+      <c r="Q999" s="28"/>
+      <c r="R999" s="28"/>
+      <c r="S999" s="28"/>
+      <c r="T999" s="28"/>
+      <c r="U999" s="28"/>
+      <c r="V999" s="28"/>
+      <c r="W999" s="28"/>
+      <c r="X999" s="28"/>
+      <c r="Y999" s="28"/>
+      <c r="Z999" s="28"/>
+    </row>
+    <row r="1000" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1000" s="26"/>
+      <c r="B1000" s="25"/>
+      <c r="C1000" s="26"/>
+      <c r="D1000" s="26"/>
+      <c r="E1000" s="26"/>
+      <c r="F1000" s="26"/>
+      <c r="G1000" s="27"/>
+      <c r="H1000" s="25"/>
+      <c r="I1000" s="28"/>
+      <c r="J1000" s="28"/>
+      <c r="K1000" s="28"/>
+      <c r="L1000" s="28"/>
+      <c r="M1000" s="28"/>
+      <c r="N1000" s="28"/>
+      <c r="O1000" s="28"/>
+      <c r="P1000" s="28"/>
+      <c r="Q1000" s="28"/>
+      <c r="R1000" s="28"/>
+      <c r="S1000" s="28"/>
+      <c r="T1000" s="28"/>
+      <c r="U1000" s="28"/>
+      <c r="V1000" s="28"/>
+      <c r="W1000" s="28"/>
+      <c r="X1000" s="28"/>
+      <c r="Y1000" s="28"/>
+      <c r="Z1000" s="28"/>
+    </row>
+    <row r="1001" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1001" s="26"/>
+      <c r="B1001" s="25"/>
+      <c r="C1001" s="26"/>
+      <c r="D1001" s="26"/>
+      <c r="E1001" s="26"/>
+      <c r="F1001" s="26"/>
+      <c r="G1001" s="27"/>
+      <c r="H1001" s="25"/>
+      <c r="I1001" s="28"/>
+      <c r="J1001" s="28"/>
+      <c r="K1001" s="28"/>
+      <c r="L1001" s="28"/>
+      <c r="M1001" s="28"/>
+      <c r="N1001" s="28"/>
+      <c r="O1001" s="28"/>
+      <c r="P1001" s="28"/>
+      <c r="Q1001" s="28"/>
+      <c r="R1001" s="28"/>
+      <c r="S1001" s="28"/>
+      <c r="T1001" s="28"/>
+      <c r="U1001" s="28"/>
+      <c r="V1001" s="28"/>
+      <c r="W1001" s="28"/>
+      <c r="X1001" s="28"/>
+      <c r="Y1001" s="28"/>
+      <c r="Z1001" s="28"/>
+    </row>
+    <row r="1002" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1002" s="26"/>
+      <c r="B1002" s="25"/>
+      <c r="C1002" s="26"/>
+      <c r="D1002" s="26"/>
+      <c r="E1002" s="26"/>
+      <c r="F1002" s="26"/>
+      <c r="G1002" s="27"/>
+      <c r="H1002" s="25"/>
+      <c r="I1002" s="28"/>
+      <c r="J1002" s="28"/>
+      <c r="K1002" s="28"/>
+      <c r="L1002" s="28"/>
+      <c r="M1002" s="28"/>
+      <c r="N1002" s="28"/>
+      <c r="O1002" s="28"/>
+      <c r="P1002" s="28"/>
+      <c r="Q1002" s="28"/>
+      <c r="R1002" s="28"/>
+      <c r="S1002" s="28"/>
+      <c r="T1002" s="28"/>
+      <c r="U1002" s="28"/>
+      <c r="V1002" s="28"/>
+      <c r="W1002" s="28"/>
+      <c r="X1002" s="28"/>
+      <c r="Y1002" s="28"/>
+      <c r="Z1002" s="28"/>
+    </row>
+    <row r="1003" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1003" s="26"/>
+      <c r="B1003" s="25"/>
+      <c r="C1003" s="26"/>
+      <c r="D1003" s="26"/>
+      <c r="E1003" s="26"/>
+      <c r="F1003" s="26"/>
+      <c r="G1003" s="27"/>
+      <c r="H1003" s="25"/>
+      <c r="I1003" s="28"/>
+      <c r="J1003" s="28"/>
+      <c r="K1003" s="28"/>
+      <c r="L1003" s="28"/>
+      <c r="M1003" s="28"/>
+      <c r="N1003" s="28"/>
+      <c r="O1003" s="28"/>
+      <c r="P1003" s="28"/>
+      <c r="Q1003" s="28"/>
+      <c r="R1003" s="28"/>
+      <c r="S1003" s="28"/>
+      <c r="T1003" s="28"/>
+      <c r="U1003" s="28"/>
+      <c r="V1003" s="28"/>
+      <c r="W1003" s="28"/>
+      <c r="X1003" s="28"/>
+      <c r="Y1003" s="28"/>
+      <c r="Z1003" s="28"/>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:I1"/>
   </mergeCells>
   <phoneticPr fontId="16" type="noConversion"/>
-  <conditionalFormatting sqref="B3:B18">
-    <cfRule type="expression" dxfId="33" priority="15" stopIfTrue="1">
+  <conditionalFormatting sqref="B3:B36">
+    <cfRule type="expression" dxfId="97" priority="67" stopIfTrue="1">
       <formula>OR($G3="Planned",$G3="Unplanned")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B3:B18">
-    <cfRule type="expression" dxfId="32" priority="16" stopIfTrue="1">
+  <conditionalFormatting sqref="B3:B36">
+    <cfRule type="expression" dxfId="96" priority="68" stopIfTrue="1">
       <formula>$G3="Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G21:H23 I21 A30:H984 A2:I18">
-    <cfRule type="expression" dxfId="31" priority="17" stopIfTrue="1">
+  <conditionalFormatting sqref="G40:H42 I40 A49:H1003 A2:I36">
+    <cfRule type="expression" dxfId="95" priority="69" stopIfTrue="1">
       <formula>#REF!="Done"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G21:H23 I21 A30:H984 A2:I18">
-    <cfRule type="expression" dxfId="30" priority="18" stopIfTrue="1">
+  <conditionalFormatting sqref="G40:H42 I40 A49:H1003 A2:I36">
+    <cfRule type="expression" dxfId="94" priority="70" stopIfTrue="1">
       <formula>#REF!="Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G21:H23 I21 A30:H984 A2:I18">
-    <cfRule type="expression" dxfId="29" priority="19" stopIfTrue="1">
+  <conditionalFormatting sqref="G40:H42 I40 A49:H1003 A2:I36">
+    <cfRule type="expression" dxfId="93" priority="71" stopIfTrue="1">
       <formula>#REF!="Removed"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I3:I18">
-    <cfRule type="expression" dxfId="28" priority="20" stopIfTrue="1">
+  <conditionalFormatting sqref="I3:I36">
+    <cfRule type="expression" dxfId="92" priority="72" stopIfTrue="1">
       <formula>$C3="Done"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I3:I18">
-    <cfRule type="expression" dxfId="27" priority="21" stopIfTrue="1">
+  <conditionalFormatting sqref="I3:I36">
+    <cfRule type="expression" dxfId="91" priority="73" stopIfTrue="1">
       <formula>$C3="Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I3:I18">
-    <cfRule type="expression" dxfId="26" priority="22" stopIfTrue="1">
+  <conditionalFormatting sqref="I3:I36">
+    <cfRule type="expression" dxfId="90" priority="74" stopIfTrue="1">
       <formula>$C3="Removed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I3">
-    <cfRule type="expression" dxfId="25" priority="23" stopIfTrue="1">
+    <cfRule type="expression" dxfId="89" priority="75" stopIfTrue="1">
       <formula>$C3="Done"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I3">
-    <cfRule type="expression" dxfId="24" priority="24" stopIfTrue="1">
+    <cfRule type="expression" dxfId="88" priority="76" stopIfTrue="1">
       <formula>$C3="Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I3">
-    <cfRule type="expression" dxfId="23" priority="25" stopIfTrue="1">
+    <cfRule type="expression" dxfId="87" priority="77" stopIfTrue="1">
       <formula>$C3="Removed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I5">
-    <cfRule type="expression" dxfId="22" priority="26" stopIfTrue="1">
+    <cfRule type="expression" dxfId="86" priority="78" stopIfTrue="1">
       <formula>$C5="Done"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I5">
-    <cfRule type="expression" dxfId="21" priority="27" stopIfTrue="1">
+    <cfRule type="expression" dxfId="85" priority="79" stopIfTrue="1">
       <formula>$C5="Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I5">
-    <cfRule type="expression" dxfId="20" priority="28" stopIfTrue="1">
+    <cfRule type="expression" dxfId="84" priority="80" stopIfTrue="1">
       <formula>$C5="Removed"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H23:I23">
-    <cfRule type="expression" dxfId="19" priority="29" stopIfTrue="1">
-      <formula>$C22="Done"</formula>
+  <conditionalFormatting sqref="H42:I42">
+    <cfRule type="expression" dxfId="83" priority="81" stopIfTrue="1">
+      <formula>$C41="Done"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H23:I23">
-    <cfRule type="expression" dxfId="18" priority="30" stopIfTrue="1">
-      <formula>$C22="Ongoing"</formula>
+  <conditionalFormatting sqref="H42:I42">
+    <cfRule type="expression" dxfId="82" priority="82" stopIfTrue="1">
+      <formula>$C41="Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H23:I23">
-    <cfRule type="expression" dxfId="17" priority="31" stopIfTrue="1">
-      <formula>$C22="Removed"</formula>
+  <conditionalFormatting sqref="H42:I42">
+    <cfRule type="expression" dxfId="81" priority="83" stopIfTrue="1">
+      <formula>$C41="Removed"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H22:I22">
-    <cfRule type="expression" dxfId="16" priority="32" stopIfTrue="1">
+  <conditionalFormatting sqref="H41:I41">
+    <cfRule type="expression" dxfId="80" priority="84" stopIfTrue="1">
       <formula>#REF!="Done"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H22:I22">
-    <cfRule type="expression" dxfId="15" priority="33" stopIfTrue="1">
+  <conditionalFormatting sqref="H41:I41">
+    <cfRule type="expression" dxfId="79" priority="85" stopIfTrue="1">
       <formula>#REF!="Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H22:I22">
-    <cfRule type="expression" dxfId="14" priority="34" stopIfTrue="1">
+  <conditionalFormatting sqref="H41:I41">
+    <cfRule type="expression" dxfId="78" priority="86" stopIfTrue="1">
       <formula>#REF!="Removed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B11:B18">
-    <cfRule type="expression" dxfId="13" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="77" priority="53" stopIfTrue="1">
       <formula>OR($G11="Planned",$G11="Unplanned")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B11:B18">
-    <cfRule type="expression" dxfId="12" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="76" priority="54" stopIfTrue="1">
       <formula>$G11="Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A11:I18">
-    <cfRule type="expression" dxfId="11" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="75" priority="55" stopIfTrue="1">
       <formula>#REF!="Done"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A11:I18">
-    <cfRule type="expression" dxfId="10" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="74" priority="56" stopIfTrue="1">
       <formula>#REF!="Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A11:I18">
-    <cfRule type="expression" dxfId="9" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="73" priority="57" stopIfTrue="1">
       <formula>#REF!="Removed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I11:I18">
-    <cfRule type="expression" dxfId="8" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="72" priority="58" stopIfTrue="1">
       <formula>$C11="Done"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I11:I18">
-    <cfRule type="expression" dxfId="7" priority="7" stopIfTrue="1">
+    <cfRule type="expression" dxfId="71" priority="59" stopIfTrue="1">
       <formula>$C11="Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I11:I18">
-    <cfRule type="expression" dxfId="6" priority="8" stopIfTrue="1">
+    <cfRule type="expression" dxfId="70" priority="60" stopIfTrue="1">
       <formula>$C11="Removed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I11">
-    <cfRule type="expression" dxfId="5" priority="9" stopIfTrue="1">
+    <cfRule type="expression" dxfId="69" priority="61" stopIfTrue="1">
       <formula>$C11="Done"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I11">
-    <cfRule type="expression" dxfId="4" priority="10" stopIfTrue="1">
+    <cfRule type="expression" dxfId="68" priority="62" stopIfTrue="1">
       <formula>$C11="Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I11">
-    <cfRule type="expression" dxfId="3" priority="11" stopIfTrue="1">
+    <cfRule type="expression" dxfId="67" priority="63" stopIfTrue="1">
       <formula>$C11="Removed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I13">
-    <cfRule type="expression" dxfId="2" priority="12" stopIfTrue="1">
+    <cfRule type="expression" dxfId="66" priority="64" stopIfTrue="1">
       <formula>$C13="Done"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I13">
-    <cfRule type="expression" dxfId="1" priority="13" stopIfTrue="1">
+    <cfRule type="expression" dxfId="65" priority="65" stopIfTrue="1">
       <formula>$C13="Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I13">
-    <cfRule type="expression" dxfId="0" priority="14" stopIfTrue="1">
+    <cfRule type="expression" dxfId="64" priority="66" stopIfTrue="1">
       <formula>$C13="Removed"</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="B19:B34">
+    <cfRule type="expression" dxfId="63" priority="39" stopIfTrue="1">
+      <formula>OR($G19="Planned",$G19="Unplanned")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B19:B34">
+    <cfRule type="expression" dxfId="62" priority="40" stopIfTrue="1">
+      <formula>$G19="Ongoing"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A19:I34">
+    <cfRule type="expression" dxfId="61" priority="41" stopIfTrue="1">
+      <formula>#REF!="Done"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A19:I34">
+    <cfRule type="expression" dxfId="60" priority="42" stopIfTrue="1">
+      <formula>#REF!="Ongoing"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A19:I34">
+    <cfRule type="expression" dxfId="59" priority="43" stopIfTrue="1">
+      <formula>#REF!="Removed"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I19:I34">
+    <cfRule type="expression" dxfId="58" priority="44" stopIfTrue="1">
+      <formula>$C19="Done"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I19:I34">
+    <cfRule type="expression" dxfId="57" priority="45" stopIfTrue="1">
+      <formula>$C19="Ongoing"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I19:I34">
+    <cfRule type="expression" dxfId="56" priority="46" stopIfTrue="1">
+      <formula>$C19="Removed"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I19">
+    <cfRule type="expression" dxfId="55" priority="47" stopIfTrue="1">
+      <formula>$C19="Done"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I19">
+    <cfRule type="expression" dxfId="54" priority="48" stopIfTrue="1">
+      <formula>$C19="Ongoing"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I19">
+    <cfRule type="expression" dxfId="53" priority="49" stopIfTrue="1">
+      <formula>$C19="Removed"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I21">
+    <cfRule type="expression" dxfId="52" priority="50" stopIfTrue="1">
+      <formula>$C21="Done"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I21">
+    <cfRule type="expression" dxfId="51" priority="51" stopIfTrue="1">
+      <formula>$C21="Ongoing"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I21">
+    <cfRule type="expression" dxfId="50" priority="52" stopIfTrue="1">
+      <formula>$C21="Removed"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B27:B34">
+    <cfRule type="expression" dxfId="49" priority="25" stopIfTrue="1">
+      <formula>OR($G27="Planned",$G27="Unplanned")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B27:B34">
+    <cfRule type="expression" dxfId="48" priority="26" stopIfTrue="1">
+      <formula>$G27="Ongoing"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A27:I34">
+    <cfRule type="expression" dxfId="47" priority="27" stopIfTrue="1">
+      <formula>#REF!="Done"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A27:I34">
+    <cfRule type="expression" dxfId="46" priority="28" stopIfTrue="1">
+      <formula>#REF!="Ongoing"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A27:I34">
+    <cfRule type="expression" dxfId="45" priority="29" stopIfTrue="1">
+      <formula>#REF!="Removed"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I27:I34">
+    <cfRule type="expression" dxfId="44" priority="30" stopIfTrue="1">
+      <formula>$C27="Done"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I27:I34">
+    <cfRule type="expression" dxfId="43" priority="31" stopIfTrue="1">
+      <formula>$C27="Ongoing"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I27:I34">
+    <cfRule type="expression" dxfId="42" priority="32" stopIfTrue="1">
+      <formula>$C27="Removed"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I27">
+    <cfRule type="expression" dxfId="41" priority="33" stopIfTrue="1">
+      <formula>$C27="Done"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I27">
+    <cfRule type="expression" dxfId="40" priority="34" stopIfTrue="1">
+      <formula>$C27="Ongoing"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I27">
+    <cfRule type="expression" dxfId="39" priority="35" stopIfTrue="1">
+      <formula>$C27="Removed"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I29">
+    <cfRule type="expression" dxfId="38" priority="36" stopIfTrue="1">
+      <formula>$C29="Done"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I29">
+    <cfRule type="expression" dxfId="37" priority="37" stopIfTrue="1">
+      <formula>$C29="Ongoing"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I29">
+    <cfRule type="expression" dxfId="36" priority="38" stopIfTrue="1">
+      <formula>$C29="Removed"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B35:B37">
+    <cfRule type="expression" dxfId="35" priority="17" stopIfTrue="1">
+      <formula>OR($G35="Planned",$G35="Unplanned")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B35:B37">
+    <cfRule type="expression" dxfId="34" priority="18" stopIfTrue="1">
+      <formula>$G35="Ongoing"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A35:I37">
+    <cfRule type="expression" dxfId="33" priority="19" stopIfTrue="1">
+      <formula>#REF!="Done"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A35:I37">
+    <cfRule type="expression" dxfId="32" priority="20" stopIfTrue="1">
+      <formula>#REF!="Ongoing"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A35:I37">
+    <cfRule type="expression" dxfId="31" priority="21" stopIfTrue="1">
+      <formula>#REF!="Removed"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I35:I37">
+    <cfRule type="expression" dxfId="30" priority="22" stopIfTrue="1">
+      <formula>$C35="Done"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I35:I37">
+    <cfRule type="expression" dxfId="29" priority="23" stopIfTrue="1">
+      <formula>$C35="Ongoing"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I35:I37">
+    <cfRule type="expression" dxfId="28" priority="24" stopIfTrue="1">
+      <formula>$C35="Removed"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B35:B37">
+    <cfRule type="expression" dxfId="27" priority="9" stopIfTrue="1">
+      <formula>OR($G35="Planned",$G35="Unplanned")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B35:B37">
+    <cfRule type="expression" dxfId="26" priority="10" stopIfTrue="1">
+      <formula>$G35="Ongoing"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A35:I37">
+    <cfRule type="expression" dxfId="25" priority="11" stopIfTrue="1">
+      <formula>#REF!="Done"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A35:I37">
+    <cfRule type="expression" dxfId="24" priority="12" stopIfTrue="1">
+      <formula>#REF!="Ongoing"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A35:I37">
+    <cfRule type="expression" dxfId="23" priority="13" stopIfTrue="1">
+      <formula>#REF!="Removed"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I35:I37">
+    <cfRule type="expression" dxfId="22" priority="14" stopIfTrue="1">
+      <formula>$C35="Done"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I35:I37">
+    <cfRule type="expression" dxfId="21" priority="15" stopIfTrue="1">
+      <formula>$C35="Ongoing"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I35:I37">
+    <cfRule type="expression" dxfId="20" priority="16" stopIfTrue="1">
+      <formula>$C35="Removed"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B35:B37">
+    <cfRule type="expression" dxfId="19" priority="1" stopIfTrue="1">
+      <formula>OR($G35="Planned",$G35="Unplanned")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B35:B37">
+    <cfRule type="expression" dxfId="18" priority="2" stopIfTrue="1">
+      <formula>$G35="Ongoing"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A35:I37">
+    <cfRule type="expression" dxfId="17" priority="3" stopIfTrue="1">
+      <formula>#REF!="Done"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A35:I37">
+    <cfRule type="expression" dxfId="16" priority="4" stopIfTrue="1">
+      <formula>#REF!="Ongoing"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A35:I37">
+    <cfRule type="expression" dxfId="15" priority="5" stopIfTrue="1">
+      <formula>#REF!="Removed"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I35:I37">
+    <cfRule type="expression" dxfId="14" priority="6" stopIfTrue="1">
+      <formula>$C35="Done"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I35:I37">
+    <cfRule type="expression" dxfId="13" priority="7" stopIfTrue="1">
+      <formula>$C35="Ongoing"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I35:I37">
+    <cfRule type="expression" dxfId="12" priority="8" stopIfTrue="1">
+      <formula>$C35="Removed"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" sqref="C30:C123 C2:C18" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" allowBlank="1" sqref="C49:C142 C2:C37" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"Planned,Ongoing,Done,Removed"</formula1>
     </dataValidation>
   </dataValidations>
